--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="384">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -678,26 +678,33 @@
 info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
   </si>
   <si>
+    <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003";
+info_per_bus_legal.ent_status[0]="在营（开业）"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006";
+info_per_bus_legal.ent_status[0]="在营（开业）"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_per_bus_legal.basic_id;
+info_per_bus_legal.reg_cap[0]="123";
+info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007";
+info_per_bus_legal.ent_status[0]="在营（开业）"
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]="123"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007"
 </t>
   </si>
   <si>
@@ -1461,217 +1468,217 @@
     <t>false</t>
   </si>
   <si>
-    <t>{"name":"姚成","id_card_no":"130421194607043279"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨云","id_card_no":"420200195810303284"}</t>
-  </si>
-  <si>
-    <t>{"name":"王想","id_card_no":"430781198910305499"}</t>
-  </si>
-  <si>
-    <t>{"name":"萧婷婷","id_card_no":"450323194710193752"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘平","id_card_no":"31010619620726071X"}</t>
-  </si>
-  <si>
-    <t>{"name":"李帆","id_card_no":"510106195001024976"}</t>
-  </si>
-  <si>
-    <t>{"name":"孔平","id_card_no":"530427195808179065"}</t>
-  </si>
-  <si>
-    <t>{"name":"郭杰","id_card_no":"61042319291204089X"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄桂英","id_card_no":"620900196203187816"}</t>
-  </si>
-  <si>
-    <t>{"name":"任波","id_card_no":"420281198402097276"}</t>
-  </si>
-  <si>
-    <t>{"name":"谷玉珍","id_card_no":"371623198811208947"}</t>
-  </si>
-  <si>
-    <t>{"name":"段峰","id_card_no":"140729195111133354"}</t>
-  </si>
-  <si>
-    <t>{"name":"徐楠","id_card_no":"510101196101074463"}</t>
-  </si>
-  <si>
-    <t>{"name":"李超","id_card_no":"130803194904046352"}</t>
-  </si>
-  <si>
-    <t>{"name":"石丽","id_card_no":"411728194804296012"}</t>
-  </si>
-  <si>
-    <t>{"name":"吴琴","id_card_no":"370113195003038156"}</t>
-  </si>
-  <si>
-    <t>{"name":"李雪梅","id_card_no":"530829196304232976"}</t>
-  </si>
-  <si>
-    <t>{"name":"任萍","id_card_no":"445322196502032933"}</t>
-  </si>
-  <si>
-    <t>{"name":"阎利","id_card_no":"410202199701247219"}</t>
-  </si>
-  <si>
-    <t>{"name":"贾金凤","id_card_no":"140929197904043201"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈畅","id_card_no":"120225199211215105"}</t>
-  </si>
-  <si>
-    <t>{"name":"罗宁","id_card_no":"130400197512193823"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘博","id_card_no":"23070219560904078X"}</t>
-  </si>
-  <si>
-    <t>{"name":"樊淑珍","id_card_no":"620902193512128843"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵云","id_card_no":"610724195801254349"}</t>
-  </si>
-  <si>
-    <t>{"name":"张玉","id_card_no":"230605194310227215"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘浩","id_card_no":"532528194408201859"}</t>
-  </si>
-  <si>
-    <t>{"name":"王坤","id_card_no":"451200194511074276"}</t>
-  </si>
-  <si>
-    <t>{"name":"梁兵","id_card_no":"410927197508017469"}</t>
-  </si>
-  <si>
-    <t>{"name":"石浩","id_card_no":"450700199608316701"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄鑫","id_card_no":"210301197309234360"}</t>
-  </si>
-  <si>
-    <t>{"name":"李杨","id_card_no":"34120219590422875X"}</t>
-  </si>
-  <si>
-    <t>{"name":"雷丹丹","id_card_no":"211481194608166681"}</t>
-  </si>
-  <si>
-    <t>{"name":"佘娟","id_card_no":"450921197012218995"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙秀华","id_card_no":"130684197105255597"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘丹","id_card_no":"411601199704096133"}</t>
-  </si>
-  <si>
-    <t>{"name":"郭峰","id_card_no":"331181199606218808"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄明","id_card_no":"654225197004021373"}</t>
-  </si>
-  <si>
-    <t>{"name":"朱兵","id_card_no":"370700194310299109"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘桂香","id_card_no":"130626193408142264"}</t>
-  </si>
-  <si>
-    <t>{"name":"李红","id_card_no":"130481194109243928"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘建国","id_card_no":"532529198304290169"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄健","id_card_no":"659003196701206657"}</t>
-  </si>
-  <si>
-    <t>{"name":"范秀英","id_card_no":"511802199107094739"}</t>
-  </si>
-  <si>
-    <t>{"name":"耿佳","id_card_no":"411025193208266739"}</t>
-  </si>
-  <si>
-    <t>{"name":"李颖","id_card_no":"14082219661020479X"}</t>
-  </si>
-  <si>
-    <t>{"name":"方秀云","id_card_no":"231181195401030383"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵淑华","id_card_no":"520524194501184951"}</t>
-  </si>
-  <si>
-    <t>{"name":"柳瑞","id_card_no":"610422199909259386"}</t>
-  </si>
-  <si>
-    <t>{"name":"周亮","id_card_no":"130630196902166059"}</t>
-  </si>
-  <si>
-    <t>{"name":"张秀荣","id_card_no":"620901193704275972"}</t>
-  </si>
-  <si>
-    <t>{"name":"康红梅","id_card_no":"542521196507316420"}</t>
-  </si>
-  <si>
-    <t>{"name":"崔婷婷","id_card_no":"210304193705287342"}</t>
-  </si>
-  <si>
-    <t>{"name":"潘桂芝","id_card_no":"450923197610083253"}</t>
-  </si>
-  <si>
-    <t>{"name":"钟小红","id_card_no":"130725199008067644"}</t>
-  </si>
-  <si>
-    <t>{"name":"余峰","id_card_no":"350203197410039621"}</t>
-  </si>
-  <si>
-    <t>{"name":"郭志强","id_card_no":"610626198803125795"}</t>
-  </si>
-  <si>
-    <t>{"name":"李春梅","id_card_no":"431000196406204117"}</t>
-  </si>
-  <si>
-    <t>{"name":"王龙","id_card_no":"340323193102039436"}</t>
-  </si>
-  <si>
-    <t>{"name":"戴宇","id_card_no":"653126199402237021"}</t>
-  </si>
-  <si>
-    <t>{"name":"张东","id_card_no":"150223196012201594"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙宁","id_card_no":"341823193101088189"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙静","id_card_no":"621026195801174303"}</t>
-  </si>
-  <si>
-    <t>{"name":"张帅","id_card_no":"130100198408196571"}</t>
-  </si>
-  <si>
-    <t>{"name":"王凯","id_card_no":"511111196609090855"}</t>
-  </si>
-  <si>
-    <t>{"name":"王瑞","id_card_no":"652929199512243571"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑凤英","id_card_no":"542228198004278431"}</t>
-  </si>
-  <si>
-    <t>{"name":"吴秀华","id_card_no":"152527199012299779"}</t>
-  </si>
-  <si>
-    <t>{"name":"李兰英","id_card_no":"310104199212158585"}</t>
-  </si>
-  <si>
-    <t>{"name":"李秀芳","id_card_no":"15252419720412887X"}</t>
-  </si>
-  <si>
-    <t>{"name":"林艳","id_card_no":"340402194709129946"}</t>
+    <t>{"name":"余兵","id_card_no":"451122195612236040"}</t>
+  </si>
+  <si>
+    <t>{"name":"王荣","id_card_no":"410928199711046367"}</t>
+  </si>
+  <si>
+    <t>{"name":"戚桂荣","id_card_no":"542624193602198136"}</t>
+  </si>
+  <si>
+    <t>{"name":"卓旭","id_card_no":"440803196408056588"}</t>
+  </si>
+  <si>
+    <t>{"name":"王畅","id_card_no":"510823198609238284"}</t>
+  </si>
+  <si>
+    <t>{"name":"李玉珍","id_card_no":"441202196412103318"}</t>
+  </si>
+  <si>
+    <t>{"name":"余柳","id_card_no":"511321197603052645"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑东","id_card_no":"320200198804038760"}</t>
+  </si>
+  <si>
+    <t>{"name":"马龙","id_card_no":"420804199508138456"}</t>
+  </si>
+  <si>
+    <t>{"name":"李建国","id_card_no":"510124196301034583"}</t>
+  </si>
+  <si>
+    <t>{"name":"李婷","id_card_no":"310106194802091739"}</t>
+  </si>
+  <si>
+    <t>{"name":"王晶","id_card_no":"130600199011140491"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘峰","id_card_no":"52042219580520732X"}</t>
+  </si>
+  <si>
+    <t>{"name":"宋柳","id_card_no":"320508199010130276"}</t>
+  </si>
+  <si>
+    <t>{"name":"李小红","id_card_no":"15090119481210737X"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘春梅","id_card_no":"340322196901279572"}</t>
+  </si>
+  <si>
+    <t>{"name":"胡峰","id_card_no":"130227196403197061"}</t>
+  </si>
+  <si>
+    <t>{"name":"聂晶","id_card_no":"211381193102143677"}</t>
+  </si>
+  <si>
+    <t>{"name":"张帆","id_card_no":"431126197411194316"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑凤英","id_card_no":"431221200102053139"}</t>
+  </si>
+  <si>
+    <t>{"name":"周秀珍","id_card_no":"44510119781006658X"}</t>
+  </si>
+  <si>
+    <t>{"name":"张玉","id_card_no":"350702193806090274"}</t>
+  </si>
+  <si>
+    <t>{"name":"万建国","id_card_no":"510681194809299107"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄鑫","id_card_no":"210122195201074598"}</t>
+  </si>
+  <si>
+    <t>{"name":"王璐","id_card_no":"410822199906245194"}</t>
+  </si>
+  <si>
+    <t>{"name":"郭博","id_card_no":"420505197809187236"}</t>
+  </si>
+  <si>
+    <t>{"name":"石杰","id_card_no":"450226194803078036"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄凤英","id_card_no":"350502196107244521"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵建","id_card_no":"410102198805052045"}</t>
+  </si>
+  <si>
+    <t>{"name":"孟丽华","id_card_no":"513338194401044271"}</t>
+  </si>
+  <si>
+    <t>{"name":"孙辉","id_card_no":"420000194305264039"}</t>
+  </si>
+  <si>
+    <t>{"name":"沈斌","id_card_no":"422802193611263687"}</t>
+  </si>
+  <si>
+    <t>{"name":"何强","id_card_no":"310112198002194962"}</t>
+  </si>
+  <si>
+    <t>{"name":"祖秀英","id_card_no":"220802194011280008"}</t>
+  </si>
+  <si>
+    <t>{"name":"王东","id_card_no":"410922193410314895"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘晨","id_card_no":"42011719390405631X"}</t>
+  </si>
+  <si>
+    <t>{"name":"张辉","id_card_no":"623001194804028512"}</t>
+  </si>
+  <si>
+    <t>{"name":"王倩","id_card_no":"530824193112200173"}</t>
+  </si>
+  <si>
+    <t>{"name":"宋凯","id_card_no":"540122196602029385"}</t>
+  </si>
+  <si>
+    <t>{"name":"康峰","id_card_no":"230421197311146399"}</t>
+  </si>
+  <si>
+    <t>{"name":"阎雪梅","id_card_no":"340123193303306675"}</t>
+  </si>
+  <si>
+    <t>{"name":"韩想","id_card_no":"440883196806068973"}</t>
+  </si>
+  <si>
+    <t>{"name":"麦丽","id_card_no":"653127193207314430"}</t>
+  </si>
+  <si>
+    <t>{"name":"邵倩","id_card_no":"41082119950701312X"}</t>
+  </si>
+  <si>
+    <t>{"name":"迟林","id_card_no":"140402198110292457"}</t>
+  </si>
+  <si>
+    <t>{"name":"冯秀云","id_card_no":"430511198502090791"}</t>
+  </si>
+  <si>
+    <t>{"name":"周红霞","id_card_no":"411625194208131508"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘玉英","id_card_no":"320205193608089367"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘彬","id_card_no":"652901197006104557"}</t>
+  </si>
+  <si>
+    <t>{"name":"唐娜","id_card_no":"520302199105148741"}</t>
+  </si>
+  <si>
+    <t>{"name":"覃倩","id_card_no":"150501193501045689"}</t>
+  </si>
+  <si>
+    <t>{"name":"李红梅","id_card_no":"610727195911208406"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨建军","id_card_no":"350784197605154879"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄雷","id_card_no":"450305197609191737"}</t>
+  </si>
+  <si>
+    <t>{"name":"范春梅","id_card_no":"451423198306194950"}</t>
+  </si>
+  <si>
+    <t>{"name":"吕秀云","id_card_no":"150703197001167120"}</t>
+  </si>
+  <si>
+    <t>{"name":"张林","id_card_no":"410702197509237625"}</t>
+  </si>
+  <si>
+    <t>{"name":"熊莉","id_card_no":"610625196005160398"}</t>
+  </si>
+  <si>
+    <t>{"name":"冉桂珍","id_card_no":"522625198812190744"}</t>
+  </si>
+  <si>
+    <t>{"name":"汪杰","id_card_no":"130633194005197015"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨彬","id_card_no":"540237194509130041"}</t>
+  </si>
+  <si>
+    <t>{"name":"蒋莉","id_card_no":"511422193305051971"}</t>
+  </si>
+  <si>
+    <t>{"name":"阮俊","id_card_no":"130431197907036683"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢丽华","id_card_no":"130822196212022913"}</t>
+  </si>
+  <si>
+    <t>{"name":"辛凤兰","id_card_no":"654324199509209329"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨倩","id_card_no":"140924193408267177"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈柳","id_card_no":"513324194910190981"}</t>
+  </si>
+  <si>
+    <t>{"name":"张想","id_card_no":"530622199611181222"}</t>
+  </si>
+  <si>
+    <t>{"name":"程兰英","id_card_no":"420106199403201505"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨秀梅","id_card_no":"371500197412018578"}</t>
+  </si>
+  <si>
+    <t>{"name":"江丹丹","id_card_no":"652829195512026565"}</t>
   </si>
 </sst>
 </file>
@@ -2112,28 +2119,28 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2162,25 +2169,25 @@
         <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2206,25 +2213,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2250,25 +2257,25 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2294,28 +2301,28 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2344,28 +2351,28 @@
         <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>311</v>
       </c>
       <c r="Q7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2391,28 +2398,28 @@
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2438,28 +2445,28 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2488,28 +2495,28 @@
         <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>311</v>
       </c>
       <c r="Q10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2538,28 +2545,28 @@
         <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>311</v>
       </c>
       <c r="Q11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2585,28 +2592,28 @@
         <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2632,28 +2639,28 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2679,31 +2686,31 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2729,28 +2736,28 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2776,28 +2783,28 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2823,31 +2830,31 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2873,28 +2880,28 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2920,28 +2927,28 @@
         <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2967,31 +2974,31 @@
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3017,28 +3024,28 @@
         <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3064,28 +3071,28 @@
         <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3111,31 +3118,31 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3161,28 +3168,28 @@
         <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3208,25 +3215,25 @@
         <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3252,28 +3259,28 @@
         <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3299,28 +3306,28 @@
         <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
         <v>311</v>
       </c>
       <c r="Q27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3346,28 +3353,28 @@
         <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3393,28 +3400,28 @@
         <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3440,28 +3447,28 @@
         <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3487,28 +3494,28 @@
         <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
         <v>311</v>
       </c>
       <c r="Q31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3534,28 +3541,28 @@
         <v>73</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3581,28 +3588,28 @@
         <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="s">
         <v>311</v>
       </c>
       <c r="Q33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3628,28 +3635,28 @@
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3675,28 +3682,28 @@
         <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3722,31 +3729,31 @@
         <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3772,28 +3779,28 @@
         <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3819,28 +3826,28 @@
         <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3866,31 +3873,31 @@
         <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3916,28 +3923,28 @@
         <v>81</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3963,28 +3970,28 @@
         <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4010,31 +4017,31 @@
         <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4060,28 +4067,28 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4107,28 +4114,28 @@
         <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q44" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4154,28 +4161,28 @@
         <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4201,31 +4208,31 @@
         <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P46" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4251,28 +4258,28 @@
         <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q47" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4298,28 +4305,28 @@
         <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4345,31 +4352,31 @@
         <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4395,28 +4402,28 @@
         <v>91</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4442,31 +4449,31 @@
         <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q51" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4492,31 +4499,31 @@
         <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4542,31 +4549,31 @@
         <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O53">
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q53" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4592,28 +4599,28 @@
         <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4639,31 +4646,31 @@
         <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q55" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4689,28 +4696,28 @@
         <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O56" s="2">
         <v>45841</v>
       </c>
       <c r="P56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4736,31 +4743,31 @@
         <v>98</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O57" s="2">
         <v>44015</v>
       </c>
       <c r="P57" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4786,28 +4793,28 @@
         <v>99</v>
       </c>
       <c r="I58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O58" s="2">
         <v>41428</v>
       </c>
       <c r="P58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4833,31 +4840,31 @@
         <v>100</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O59" s="2">
         <v>43254</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4883,28 +4890,28 @@
         <v>101</v>
       </c>
       <c r="I60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O60" s="2">
         <v>41428</v>
       </c>
       <c r="P60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4930,31 +4937,31 @@
         <v>102</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O61" s="2">
         <v>43254</v>
       </c>
       <c r="P61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4980,28 +4987,28 @@
         <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -5027,31 +5034,31 @@
         <v>104</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q63" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -5077,28 +5084,28 @@
         <v>105</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q64" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5124,31 +5131,31 @@
         <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q65" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5174,28 +5181,28 @@
         <v>107</v>
       </c>
       <c r="I66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P66" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q66" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -5221,25 +5228,25 @@
         <v>108</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -5265,28 +5272,28 @@
         <v>109</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P68" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5312,28 +5319,28 @@
         <v>110</v>
       </c>
       <c r="I69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q69" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5359,31 +5366,31 @@
         <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5409,28 +5416,28 @@
         <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5456,31 +5463,31 @@
         <v>113</v>
       </c>
       <c r="H72" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q72" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -1468,217 +1468,217 @@
     <t>false</t>
   </si>
   <si>
-    <t>{"name":"余兵","id_card_no":"451122195612236040"}</t>
-  </si>
-  <si>
-    <t>{"name":"王荣","id_card_no":"410928199711046367"}</t>
-  </si>
-  <si>
-    <t>{"name":"戚桂荣","id_card_no":"542624193602198136"}</t>
-  </si>
-  <si>
-    <t>{"name":"卓旭","id_card_no":"440803196408056588"}</t>
-  </si>
-  <si>
-    <t>{"name":"王畅","id_card_no":"510823198609238284"}</t>
-  </si>
-  <si>
-    <t>{"name":"李玉珍","id_card_no":"441202196412103318"}</t>
-  </si>
-  <si>
-    <t>{"name":"余柳","id_card_no":"511321197603052645"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑东","id_card_no":"320200198804038760"}</t>
-  </si>
-  <si>
-    <t>{"name":"马龙","id_card_no":"420804199508138456"}</t>
-  </si>
-  <si>
-    <t>{"name":"李建国","id_card_no":"510124196301034583"}</t>
-  </si>
-  <si>
-    <t>{"name":"李婷","id_card_no":"310106194802091739"}</t>
-  </si>
-  <si>
-    <t>{"name":"王晶","id_card_no":"130600199011140491"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘峰","id_card_no":"52042219580520732X"}</t>
-  </si>
-  <si>
-    <t>{"name":"宋柳","id_card_no":"320508199010130276"}</t>
-  </si>
-  <si>
-    <t>{"name":"李小红","id_card_no":"15090119481210737X"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘春梅","id_card_no":"340322196901279572"}</t>
-  </si>
-  <si>
-    <t>{"name":"胡峰","id_card_no":"130227196403197061"}</t>
-  </si>
-  <si>
-    <t>{"name":"聂晶","id_card_no":"211381193102143677"}</t>
-  </si>
-  <si>
-    <t>{"name":"张帆","id_card_no":"431126197411194316"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑凤英","id_card_no":"431221200102053139"}</t>
-  </si>
-  <si>
-    <t>{"name":"周秀珍","id_card_no":"44510119781006658X"}</t>
-  </si>
-  <si>
-    <t>{"name":"张玉","id_card_no":"350702193806090274"}</t>
-  </si>
-  <si>
-    <t>{"name":"万建国","id_card_no":"510681194809299107"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄鑫","id_card_no":"210122195201074598"}</t>
-  </si>
-  <si>
-    <t>{"name":"王璐","id_card_no":"410822199906245194"}</t>
-  </si>
-  <si>
-    <t>{"name":"郭博","id_card_no":"420505197809187236"}</t>
-  </si>
-  <si>
-    <t>{"name":"石杰","id_card_no":"450226194803078036"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄凤英","id_card_no":"350502196107244521"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵建","id_card_no":"410102198805052045"}</t>
-  </si>
-  <si>
-    <t>{"name":"孟丽华","id_card_no":"513338194401044271"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙辉","id_card_no":"420000194305264039"}</t>
-  </si>
-  <si>
-    <t>{"name":"沈斌","id_card_no":"422802193611263687"}</t>
-  </si>
-  <si>
-    <t>{"name":"何强","id_card_no":"310112198002194962"}</t>
-  </si>
-  <si>
-    <t>{"name":"祖秀英","id_card_no":"220802194011280008"}</t>
-  </si>
-  <si>
-    <t>{"name":"王东","id_card_no":"410922193410314895"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘晨","id_card_no":"42011719390405631X"}</t>
-  </si>
-  <si>
-    <t>{"name":"张辉","id_card_no":"623001194804028512"}</t>
-  </si>
-  <si>
-    <t>{"name":"王倩","id_card_no":"530824193112200173"}</t>
-  </si>
-  <si>
-    <t>{"name":"宋凯","id_card_no":"540122196602029385"}</t>
-  </si>
-  <si>
-    <t>{"name":"康峰","id_card_no":"230421197311146399"}</t>
-  </si>
-  <si>
-    <t>{"name":"阎雪梅","id_card_no":"340123193303306675"}</t>
-  </si>
-  <si>
-    <t>{"name":"韩想","id_card_no":"440883196806068973"}</t>
-  </si>
-  <si>
-    <t>{"name":"麦丽","id_card_no":"653127193207314430"}</t>
-  </si>
-  <si>
-    <t>{"name":"邵倩","id_card_no":"41082119950701312X"}</t>
-  </si>
-  <si>
-    <t>{"name":"迟林","id_card_no":"140402198110292457"}</t>
-  </si>
-  <si>
-    <t>{"name":"冯秀云","id_card_no":"430511198502090791"}</t>
-  </si>
-  <si>
-    <t>{"name":"周红霞","id_card_no":"411625194208131508"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘玉英","id_card_no":"320205193608089367"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘彬","id_card_no":"652901197006104557"}</t>
-  </si>
-  <si>
-    <t>{"name":"唐娜","id_card_no":"520302199105148741"}</t>
-  </si>
-  <si>
-    <t>{"name":"覃倩","id_card_no":"150501193501045689"}</t>
-  </si>
-  <si>
-    <t>{"name":"李红梅","id_card_no":"610727195911208406"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨建军","id_card_no":"350784197605154879"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄雷","id_card_no":"450305197609191737"}</t>
-  </si>
-  <si>
-    <t>{"name":"范春梅","id_card_no":"451423198306194950"}</t>
-  </si>
-  <si>
-    <t>{"name":"吕秀云","id_card_no":"150703197001167120"}</t>
-  </si>
-  <si>
-    <t>{"name":"张林","id_card_no":"410702197509237625"}</t>
-  </si>
-  <si>
-    <t>{"name":"熊莉","id_card_no":"610625196005160398"}</t>
-  </si>
-  <si>
-    <t>{"name":"冉桂珍","id_card_no":"522625198812190744"}</t>
-  </si>
-  <si>
-    <t>{"name":"汪杰","id_card_no":"130633194005197015"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨彬","id_card_no":"540237194509130041"}</t>
-  </si>
-  <si>
-    <t>{"name":"蒋莉","id_card_no":"511422193305051971"}</t>
-  </si>
-  <si>
-    <t>{"name":"阮俊","id_card_no":"130431197907036683"}</t>
-  </si>
-  <si>
-    <t>{"name":"谢丽华","id_card_no":"130822196212022913"}</t>
-  </si>
-  <si>
-    <t>{"name":"辛凤兰","id_card_no":"654324199509209329"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨倩","id_card_no":"140924193408267177"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈柳","id_card_no":"513324194910190981"}</t>
-  </si>
-  <si>
-    <t>{"name":"张想","id_card_no":"530622199611181222"}</t>
-  </si>
-  <si>
-    <t>{"name":"程兰英","id_card_no":"420106199403201505"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨秀梅","id_card_no":"371500197412018578"}</t>
-  </si>
-  <si>
-    <t>{"name":"江丹丹","id_card_no":"652829195512026565"}</t>
+    <t>{"name":"段淑华","id_card_no":"632622192908015552"}</t>
+  </si>
+  <si>
+    <t>{"name":"邓文","id_card_no":"469023198110082188"}</t>
+  </si>
+  <si>
+    <t>{"name":"马桂荣","id_card_no":"451300197003254843"}</t>
+  </si>
+  <si>
+    <t>{"name":"王云","id_card_no":"421022194006157697"}</t>
+  </si>
+  <si>
+    <t>{"name":"朱玉华","id_card_no":"130229194507055440"}</t>
+  </si>
+  <si>
+    <t>{"name":"沈宇","id_card_no":"653000197208140658"}</t>
+  </si>
+  <si>
+    <t>{"name":"朱敏","id_card_no":"320204199412187468"}</t>
+  </si>
+  <si>
+    <t>{"name":"王丽丽","id_card_no":"321102194011073451"}</t>
+  </si>
+  <si>
+    <t>{"name":"向海燕","id_card_no":"530328198802059550"}</t>
+  </si>
+  <si>
+    <t>{"name":"吴帅","id_card_no":"445303199004028186"}</t>
+  </si>
+  <si>
+    <t>{"name":"张秀芳","id_card_no":"430422198511046737"}</t>
+  </si>
+  <si>
+    <t>{"name":"聂鑫","id_card_no":"130125193106173336"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵红梅","id_card_no":"341300193809042184"}</t>
+  </si>
+  <si>
+    <t>{"name":"梁成","id_card_no":"360729199309199665"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢琴","id_card_no":"522635197611188224"}</t>
+  </si>
+  <si>
+    <t>{"name":"潘雪梅","id_card_no":"350722199103265368"}</t>
+  </si>
+  <si>
+    <t>{"name":"何小红","id_card_no":"460108195110211760"}</t>
+  </si>
+  <si>
+    <t>{"name":"冯涛","id_card_no":"513401195312167170"}</t>
+  </si>
+  <si>
+    <t>{"name":"林玲","id_card_no":"610116193110112462"}</t>
+  </si>
+  <si>
+    <t>{"name":"周英","id_card_no":"654300196107023770"}</t>
+  </si>
+  <si>
+    <t>{"name":"王建华","id_card_no":"54252119990606464X"}</t>
+  </si>
+  <si>
+    <t>{"name":"吕明","id_card_no":"510600193505269651"}</t>
+  </si>
+  <si>
+    <t>{"name":"王丽丽","id_card_no":"350105195410243516"}</t>
+  </si>
+  <si>
+    <t>{"name":"高桂兰","id_card_no":"371082196310061498"}</t>
+  </si>
+  <si>
+    <t>{"name":"王磊","id_card_no":"45022419560418978X"}</t>
+  </si>
+  <si>
+    <t>{"name":"徐淑珍","id_card_no":"430407198411153726"}</t>
+  </si>
+  <si>
+    <t>{"name":"贾瑜","id_card_no":"430100193110118819"}</t>
+  </si>
+  <si>
+    <t>{"name":"凌建平","id_card_no":"130535196706262461"}</t>
+  </si>
+  <si>
+    <t>{"name":"庞丽丽","id_card_no":"34172219321021308X"}</t>
+  </si>
+  <si>
+    <t>{"name":"全桂珍","id_card_no":"620722193503036845"}</t>
+  </si>
+  <si>
+    <t>{"name":"项宁","id_card_no":"341821194709138123"}</t>
+  </si>
+  <si>
+    <t>{"name":"佘桂珍","id_card_no":"53332419780109877X"}</t>
+  </si>
+  <si>
+    <t>{"name":"关健","id_card_no":"320105193701189113"}</t>
+  </si>
+  <si>
+    <t>{"name":"叶华","id_card_no":"15042919720620421X"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢楠","id_card_no":"430201195808079445"}</t>
+  </si>
+  <si>
+    <t>{"name":"唐超","id_card_no":"61010219841222662X"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨秀荣","id_card_no":"330282200011226020"}</t>
+  </si>
+  <si>
+    <t>{"name":"沈帅","id_card_no":"620826199804166246"}</t>
+  </si>
+  <si>
+    <t>{"name":"关建国","id_card_no":"110102193103172997"}</t>
+  </si>
+  <si>
+    <t>{"name":"王红梅","id_card_no":"320723198409133110"}</t>
+  </si>
+  <si>
+    <t>{"name":"林荣","id_card_no":"441301197003210925"}</t>
+  </si>
+  <si>
+    <t>{"name":"范辉","id_card_no":"130111200107106623"}</t>
+  </si>
+  <si>
+    <t>{"name":"褚龙","id_card_no":"150205199406071711"}</t>
+  </si>
+  <si>
+    <t>{"name":"叶桂花","id_card_no":"361181195806020211"}</t>
+  </si>
+  <si>
+    <t>{"name":"王勇","id_card_no":"430103198304156380"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈帅","id_card_no":"522328198611048728"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵欢","id_card_no":"510107194707052006"}</t>
+  </si>
+  <si>
+    <t>{"name":"游亮","id_card_no":"511424199409214763"}</t>
+  </si>
+  <si>
+    <t>{"name":"牟璐","id_card_no":"610481199207124276"}</t>
+  </si>
+  <si>
+    <t>{"name":"李勇","id_card_no":"431223196302276306"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵兰英","id_card_no":"653000194501304371"}</t>
+  </si>
+  <si>
+    <t>{"name":"董柳","id_card_no":"350504199104278239"}</t>
+  </si>
+  <si>
+    <t>{"name":"王成","id_card_no":"230624197704084053"}</t>
+  </si>
+  <si>
+    <t>{"name":"翁刚","id_card_no":"130700195709074251"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄彬","id_card_no":"441803195806176282"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨琳","id_card_no":"110102196203030535"}</t>
+  </si>
+  <si>
+    <t>{"name":"张娟","id_card_no":"34160219310817188X"}</t>
+  </si>
+  <si>
+    <t>{"name":"蔡杰","id_card_no":"431103193701111627"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢淑兰","id_card_no":"63222219860130745X"}</t>
+  </si>
+  <si>
+    <t>{"name":"左瑞","id_card_no":"511922197110101372"}</t>
+  </si>
+  <si>
+    <t>{"name":"李帆","id_card_no":"320311199605078785"}</t>
+  </si>
+  <si>
+    <t>{"name":"孙刚","id_card_no":"410102195803283081"}</t>
+  </si>
+  <si>
+    <t>{"name":"潘丽","id_card_no":"450821198212043084"}</t>
+  </si>
+  <si>
+    <t>{"name":"李玉珍","id_card_no":"230200199103301194"}</t>
+  </si>
+  <si>
+    <t>{"name":"李琳","id_card_no":"130705199109183032"}</t>
+  </si>
+  <si>
+    <t>{"name":"余帆","id_card_no":"43130219950118791X"}</t>
+  </si>
+  <si>
+    <t>{"name":"王静","id_card_no":"340302199705112749"}</t>
+  </si>
+  <si>
+    <t>{"name":"廖坤","id_card_no":"532325198509223641"}</t>
+  </si>
+  <si>
+    <t>{"name":"王秀华","id_card_no":"620502199709272844"}</t>
+  </si>
+  <si>
+    <t>{"name":"周宁","id_card_no":"320500196012133038"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈敏","id_card_no":"35060019820523509X"}</t>
   </si>
 </sst>
 </file>
@@ -3368,10 +3368,10 @@
         <v>300</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q28" t="s">
         <v>339</v>
@@ -3650,7 +3650,7 @@
         <v>300</v>
       </c>
       <c r="O34">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P34" t="s">
         <v>312</v>
@@ -3697,7 +3697,7 @@
         <v>300</v>
       </c>
       <c r="O35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P35" t="s">
         <v>312</v>
@@ -3841,7 +3841,7 @@
         <v>300</v>
       </c>
       <c r="O38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P38" t="s">
         <v>312</v>
@@ -3891,7 +3891,7 @@
         <v>300</v>
       </c>
       <c r="O39">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P39" t="s">
         <v>312</v>
@@ -4035,10 +4035,10 @@
         <v>300</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q42" t="s">
         <v>353</v>
@@ -4082,10 +4082,10 @@
         <v>300</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q43" t="s">
         <v>354</v>
@@ -4129,10 +4129,10 @@
         <v>300</v>
       </c>
       <c r="O44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q44" t="s">
         <v>355</v>
@@ -4226,10 +4226,10 @@
         <v>300</v>
       </c>
       <c r="O46">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q46" t="s">
         <v>357</v>
@@ -5196,10 +5196,10 @@
         <v>300</v>
       </c>
       <c r="O66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q66" t="s">
         <v>377</v>
@@ -5287,10 +5287,10 @@
         <v>300</v>
       </c>
       <c r="O68">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q68" t="s">
         <v>379</v>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -152,1100 +152,1100 @@
   </si>
   <si>
     <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司1001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司001";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销";
-info_per_bus_shareholder.ent_name[2]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[2]="0.3";
-info_per_bus_shareholder.reg_cap[2]="130";
-info_per_bus_shareholder.ent_status[2]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.jhi_date[0]="2018-07-05";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销";
-info_per_bus_shareholder.jhi_date[1]="2017-07-05";
-info_per_bus_shareholder.ent_name[2]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[2]="0.3";
-info_per_bus_shareholder.reg_cap[2]="120";
-info_per_bus_shareholder.ent_status[2]="在营（开业）";
-info_per_bus_shareholder.jhi_date[2]="2017-07-05";
-info_per_bus_shareholder.ent_name[3]="上海蓝胖子有限公司湖北分公司";
-info_per_bus_shareholder.funded_ratio[3]="0.25";
-info_per_bus_shareholder.reg_cap[3]="120";
-info_per_bus_shareholder.ent_status[3]="在营（开业）";
-info_per_bus_shareholder.jhi_date[3]="2017-07-05";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司002";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司004";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司005";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";
-info_per_bus_shareholder.ent_name[1]="上海蓝胖子有限公司江苏分公司";
-info_per_bus_shareholder.funded_ratio[1]="0.7";
-info_per_bus_shareholder.reg_cap[1]="120";
-info_per_bus_shareholder.ent_status[1]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="注销"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司008";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司009";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司010";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司011";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司012";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司013";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司014";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司015";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司016";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司017";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司018";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司019";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="存续（在营、开业、在册）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司020";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司021";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司022";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司023";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司024";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司025";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司026";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司027";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司028";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司029";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司030";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司031";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司032";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司033";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司034";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司035";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司036";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司037";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司038";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司039";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司040";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司041";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司042";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司043";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司044";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司045";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司046";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司047";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司048";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司049";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司050";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司051";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司052";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司053";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司054";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司055";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司056";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司057";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司058";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司059";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司060";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司061";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司062";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司063";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司064";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司065";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司066";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）";</t>
-  </si>
-  <si>
-    <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]="上海蓝胖子有限公司067";
-info_per_bus_shareholder.funded_ratio[0]="0.3";
-info_per_bus_shareholder.reg_cap[0]="120";
-info_per_bus_shareholder.ent_status[0]="在营（开业）"</t>
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司1001';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司001';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销';
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[2]='0.3';
+info_per_bus_shareholder.reg_cap[2]='130';
+info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.jhi_date[0]='2018-07-05';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销';
+info_per_bus_shareholder.jhi_date[1]='2017-07-05';
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[2]='0.3';
+info_per_bus_shareholder.reg_cap[2]='120';
+info_per_bus_shareholder.ent_status[2]='在营（开业）';
+info_per_bus_shareholder.jhi_date[2]='2017-07-05';
+info_per_bus_shareholder.ent_name[3]='上海蓝胖子有限公司湖北分公司';
+info_per_bus_shareholder.funded_ratio[3]='0.25';
+info_per_bus_shareholder.reg_cap[3]='120';
+info_per_bus_shareholder.ent_status[3]='在营（开业）';
+info_per_bus_shareholder.jhi_date[3]='2017-07-05';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司002';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司004';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司005';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司江苏分公司';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.reg_cap[1]='120';
+info_per_bus_shareholder.ent_status[1]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='注销'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司008';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司009';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司010';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司011';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司012';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司013';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司014';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司015';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司016';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司017';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司018';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司019';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司020';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司021';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司022';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司023';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司024';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司025';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司026';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司027';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司028';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司029';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司030';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司031';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司032';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司033';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司034';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司035';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司036';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司037';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司038';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司039';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司040';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司041';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司042';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司043';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司044';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司045';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司046';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司047';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司048';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司049';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司050';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司051';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司052';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司053';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司054';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司055';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司056';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司057';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司058';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司059';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司060';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司061';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司062';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司063';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司064';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司065';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司066';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
+  </si>
+  <si>
+    <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司067';
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.reg_cap[0]='120';
+info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
   </si>
   <si>
     <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123"</t>
+info_per_bus_legal.reg_cap[0]='123'</t>
   </si>
   <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司003";
-info_per_bus_legal.ent_status[0]="在营（开业）"
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司003';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司006";
-info_per_bus_legal.ent_status[0]="在营（开业）"
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司006';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123";
-info_per_bus_legal.ent_name[0]="上海蓝胖子有限公司湖北分公司007";
-info_per_bus_legal.ent_status[0]="在营（开业）"
+info_per_bus_legal.reg_cap[0]='123';
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司湖北分公司007';
+info_per_bus_legal.ent_status[0]='在营（开业）'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_per_bus_legal.basic_id;
-info_per_bus_legal.reg_cap[0]="123"
+info_per_bus_legal.reg_cap[0]='123'
 </t>
   </si>
   <si>
     <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司1001"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司001"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司002"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司003"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司004"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司005"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司006"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司湖北分公司007"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司008"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司009"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司010"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司011"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司012"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司013"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司014"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司015"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司016"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司017"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司018"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司019"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司020"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司021"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司022"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司023"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司024"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司025"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司026"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司027"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司028"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司029";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司030";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司031";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司032";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司033";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司034";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司035"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司036"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司037"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司038"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司039"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司040"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司041"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司042"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司043"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司044"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司045"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司046"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司047"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司048"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司049"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司050"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司051"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司052"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司053"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司054"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司055"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司056"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司057"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司058"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司059"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司060"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司061";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司062";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司063";
-info_com_bus_basic.create_time="2019-07-05"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司064"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司065"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司066"</t>
-  </si>
-  <si>
-    <t>info_com_bus_basic.id;
-info_com_bus_basic.ent_name="上海蓝胖子有限公司067"</t>
+info_com_bus_basic.ent_name='上海蓝胖子有限公司1001'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司001'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司002'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司003'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司004'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司005'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司006'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司007'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司008'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司009'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司010'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司011'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司012'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司013'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司014'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司015'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司016'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司017'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司018'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司019'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司020'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司021'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司022'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司023'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司024'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司025'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司026'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司027'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司028'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司029';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司030';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司031';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司032';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司033';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司034';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司035'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司036'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司037'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司038'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司039'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司040'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司041'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司042'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司043'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司044'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司045'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司046'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司047'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司048'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司049'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司050'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司051'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司052'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司053'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司054'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司055'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司056'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司057'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司058'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司059'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司060'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司061';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司062';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司063';
+info_com_bus_basic.create_time='2019-07-05'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司064'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司065'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司066'</t>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name='上海蓝胖子有限公司067'</t>
   </si>
   <si>
     <t>info_com_bus_case.basic_id</t>
   </si>
   <si>
     <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结"</t>
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结'</t>
   </si>
   <si>
     <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结";
-info_com_bus_shares_frost.judicial_froz_state[1]="已解冻"</t>
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结';
+info_com_bus_shares_frost.judicial_froz_state[1]='已解冻'</t>
   </si>
   <si>
     <t>info_com_bus_shares_frost.basic_id;
-info_com_bus_shares_frost.judicial_froz_state[0]="冻结，已解冻"</t>
+info_com_bus_shares_frost.judicial_froz_state[0]='冻结，已解冻'</t>
   </si>
   <si>
     <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="有效"
+info_com_bus_shares_impawn.imp_exe_state[0]='有效'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="有效";
-info_com_bus_shares_impawn.imp_exe_state[1]="失效"
+info_com_bus_shares_impawn.imp_exe_state[0]='有效';
+info_com_bus_shares_impawn.imp_exe_state[1]='失效'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
-info_com_bus_shares_impawn.imp_exe_state[0]="失效"
+info_com_bus_shares_impawn.imp_exe_state[0]='失效'
 </t>
   </si>
   <si>
     <t xml:space="preserve">info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="有效"
+info_com_bus_mort_basic.mort_status[0]='有效'
 </t>
   </si>
   <si>
     <t>info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="有效";
-info_com_bus_mort_basic.mort_status[1]="失效"</t>
+info_com_bus_mort_basic.mort_status[0]='有效';
+info_com_bus_mort_basic.mort_status[1]='失效'</t>
   </si>
   <si>
     <t>info_com_bus_mort_basic.basic_id;
-info_com_bus_mort_basic.mort_status[0]="失效"</t>
+info_com_bus_mort_basic.mort_status[0]='失效'</t>
   </si>
   <si>
     <t>info_com_bus_liquidation.basic_id</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_out[0]="已移出"</t>
+info_com_bus_exception.result_out[0]='已移出'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id</t>
   </si>
   <si>
     <t>info_com_bus_illegal.basic_id;
-info_com_bus_illegal.illegal_rresult_out[0]="已移出"</t>
+info_com_bus_illegal.illegal_rresult_out[0]='已移出'</t>
   </si>
   <si>
     <t>info_com_bus_illegal.basic_id</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2013-09-01";
-info_com_bus_alter.alt_item[1]="法定代表人变更";
-info_com_bus_alter.alt_date[2]="2017-09-01";
-info_com_bus_alter.alt_item[2]="法定代表人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2013-09-01';
+info_com_bus_alter.alt_item[1]='法定代表人变更';
+info_com_bus_alter.alt_date[2]='2017-09-01';
+info_com_bus_alter.alt_item[2]='法定代表人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2017-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2017-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="投资人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='投资人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2013-09-01";
-info_com_bus_alter.alt_item[1]="法定代表人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2013-09-01';
+info_com_bus_alter.alt_item[1]='法定代表人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2014-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2014-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-09-01";
-info_com_bus_alter.alt_item[0]="投资人变更";
-info_com_bus_alter.alt_date[1]="2017-09-01";
-info_com_bus_alter.alt_item[1]="投资人变更"</t>
+info_com_bus_alter.alt_date[0]='2018-09-01';
+info_com_bus_alter.alt_item[0]='投资人变更';
+info_com_bus_alter.alt_date[1]='2017-09-01';
+info_com_bus_alter.alt_item[1]='投资人变更'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.date_out[0]="2018-07-03";
-info_com_bus_exception.result_in[0]="年度报告";
-info_com_bus_exception.result_in[1]="无法取得联系"</t>
+info_com_bus_exception.date_out[0]='2018-07-03';
+info_com_bus_exception.result_in[0]='年度报告';
+info_com_bus_exception.result_in[1]='无法取得联系'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.date_out[0]="2018-07-03";
-info_com_bus_exception.result_in[0]="年度报告"</t>
+info_com_bus_exception.date_out[0]='2018-07-03';
+info_com_bus_exception.result_in[0]='年度报告'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_in[0]="弄虚作假";
-info_com_bus_exception.result_in[1]="无法取得联系"</t>
+info_com_bus_exception.result_in[0]='弄虚作假';
+info_com_bus_exception.result_in[1]='无法取得联系'</t>
   </si>
   <si>
     <t>info_com_bus_exception.basic_id;
-info_com_bus_exception.result_in[0]="年度报告"</t>
+info_com_bus_exception.result_in[0]='年度报告'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="经营范围变更"</t>
+info_com_bus_alter.alt_item[0]='经营范围变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="投资人变更"</t>
+info_com_bus_alter.alt_item[0]='投资人变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_item[0]="经营范围变更";
-info_com_bus_alter.alt_item[1]="法定代表人变更";
-info_com_bus_alter.alt_item[2]="经营范围变更"</t>
+info_com_bus_alter.alt_item[0]='经营范围变更';
+info_com_bus_alter.alt_item[1]='法定代表人变更';
+info_com_bus_alter.alt_item[2]='经营范围变更'</t>
   </si>
   <si>
     <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.funded_ratio[0]="0.2";
-info_com_bus_entinvitem.ent_status[0]="吊销"</t>
+info_com_bus_entinvitem.funded_ratio[0]='0.2';
+info_com_bus_entinvitem.ent_status[0]='吊销'</t>
   </si>
   <si>
     <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.funded_ratio[0]="0.2";
-info_com_bus_frinv.ent_status[0]="吊销"</t>
+info_com_bus_frinv.funded_ratio[0]='0.2';
+info_com_bus_frinv.ent_status[0]='吊销'</t>
   </si>
   <si>
     <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.funded_ratio[0]="0.2";
-info_com_bus_entinvitem.ent_status[0]="在营（开业）";
-info_com_bus_entinvitem.funded_ratio[1]="0.1";
-info_com_bus_entinvitem.ent_status[1]="吊销";
-info_com_bus_entinvitem.funded_ratio[2]="0.3";
-info_com_bus_entinvitem.ent_status[2]="吊销"</t>
+info_com_bus_entinvitem.funded_ratio[0]='0.2';
+info_com_bus_entinvitem.ent_status[0]='在营（开业）';
+info_com_bus_entinvitem.funded_ratio[1]='0.1';
+info_com_bus_entinvitem.ent_status[1]='吊销';
+info_com_bus_entinvitem.funded_ratio[2]='0.3';
+info_com_bus_entinvitem.ent_status[2]='吊销'</t>
   </si>
   <si>
     <t>info_com_bus_entinvitem.basic_id;
-info_com_bus_entinvitem.ent_name[0]="上海蓝胖子有限公司江苏分公司";
-info_com_bus_entinvitem.funded_ratio[0]="0.3"</t>
+info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司江苏分公司';
+info_com_bus_entinvitem.funded_ratio[0]='0.3'</t>
   </si>
   <si>
     <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.ent_name[0]="上海蓝胖子有限公司江苏分公司";
-info_com_bus_frinv.funded_ratio[0]="0.3"</t>
+info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司江苏分公司';
+info_com_bus_frinv.funded_ratio[0]='0.3'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_phy_code[0]="F"</t>
+info_com_bus_face.industry_phy_code[0]='F'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_phy_code[0]="A"</t>
+info_com_bus_face.industry_phy_code[0]='A'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_to[0]="2025-07-03"</t>
+info_com_bus_face.open_to[0]='2025-07-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_to[0]="2020-07-03"</t>
+info_com_bus_face.open_to[0]='2020-07-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_from[0]="2013-06-03"</t>
+info_com_bus_face.open_from[0]='2013-06-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.open_from[0]="2018-06-03"</t>
+info_com_bus_face.open_from[0]='2018-06-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.es_date[0]="2013-06-03"</t>
+info_com_bus_face.es_date[0]='2013-06-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.es_date[0]="2018-06-03"</t>
+info_com_bus_face.es_date[0]='2018-06-03'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.area_code[0]="310118"</t>
+info_com_bus_face.area_code[0]='310118'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.area_code[0]="340123"</t>
+info_com_bus_face.area_code[0]='340123'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_code[0]="3312"</t>
+info_com_bus_face.industry_code[0]='3312'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.industry_code[0]="5165"</t>
+info_com_bus_face.industry_code[0]='5165'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-03-05";
-info_com_bus_alter.alt_item[0]="注册资本变更";
-info_com_bus_alter.alt_date[1]="2013-03-05";
-info_com_bus_alter.alt_item[1]="注册资本变更"</t>
+info_com_bus_alter.alt_date[0]='2018-03-05';
+info_com_bus_alter.alt_item[0]='注册资本变更';
+info_com_bus_alter.alt_date[1]='2013-03-05';
+info_com_bus_alter.alt_item[1]='注册资本变更'</t>
   </si>
   <si>
     <t>info_com_bus_alter.basic_id;
-info_com_bus_alter.alt_date[0]="2018-03-05";
-info_com_bus_alter.alt_item[0]="法定代表人变更";
-info_com_bus_alter.alt_date[1]="2017-03-05";
-info_com_bus_alter.alt_item[1]="注册资本变更";
-info_com_bus_alter.alt_date[2]="2016-03-05";
-info_com_bus_alter.alt_item[2]="注册资本变更"</t>
+info_com_bus_alter.alt_date[0]='2018-03-05';
+info_com_bus_alter.alt_item[0]='法定代表人变更';
+info_com_bus_alter.alt_date[1]='2017-03-05';
+info_com_bus_alter.alt_item[1]='注册资本变更';
+info_com_bus_alter.alt_date[2]='2016-03-05';
+info_com_bus_alter.alt_item[2]='注册资本变更'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.province[0]="上海"</t>
+info_com_bus_face.province[0]='上海'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.province[0]="湖北"</t>
+info_com_bus_face.province[0]='湖北'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.city[0]="上海市"</t>
+info_com_bus_face.city[0]='上海市'</t>
   </si>
   <si>
     <t>info_com_bus_face.basic_id;
-info_com_bus_face.city[0]="合肥市"</t>
+info_com_bus_face.city[0]='合肥市'</t>
   </si>
   <si>
     <t>info_com_bus_frinv.basic_id;
-info_com_bus_frinv.ent_name[0]="上海蓝胖子有限公司湖南分公司";
-info_com_bus_frinv.funded_ratio[0]="0.1";
-info_com_bus_frinv.ent_name[1]="上海蓝胖子有限公司湖北分公司";
-info_com_bus_frinv.funded_ratio[1]="0.3"</t>
+info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司湖南分公司';
+info_com_bus_frinv.funded_ratio[0]='0.1';
+info_com_bus_frinv.ent_name[1]='上海蓝胖子有限公司湖北分公司';
+info_com_bus_frinv.funded_ratio[1]='0.3'</t>
   </si>
   <si>
     <t>per_com_case_info=1</t>
@@ -1468,217 +1468,217 @@
     <t>false</t>
   </si>
   <si>
-    <t>{"name":"段淑华","id_card_no":"632622192908015552"}</t>
-  </si>
-  <si>
-    <t>{"name":"邓文","id_card_no":"469023198110082188"}</t>
-  </si>
-  <si>
-    <t>{"name":"马桂荣","id_card_no":"451300197003254843"}</t>
-  </si>
-  <si>
-    <t>{"name":"王云","id_card_no":"421022194006157697"}</t>
-  </si>
-  <si>
-    <t>{"name":"朱玉华","id_card_no":"130229194507055440"}</t>
-  </si>
-  <si>
-    <t>{"name":"沈宇","id_card_no":"653000197208140658"}</t>
-  </si>
-  <si>
-    <t>{"name":"朱敏","id_card_no":"320204199412187468"}</t>
-  </si>
-  <si>
-    <t>{"name":"王丽丽","id_card_no":"321102194011073451"}</t>
-  </si>
-  <si>
-    <t>{"name":"向海燕","id_card_no":"530328198802059550"}</t>
-  </si>
-  <si>
-    <t>{"name":"吴帅","id_card_no":"445303199004028186"}</t>
-  </si>
-  <si>
-    <t>{"name":"张秀芳","id_card_no":"430422198511046737"}</t>
-  </si>
-  <si>
-    <t>{"name":"聂鑫","id_card_no":"130125193106173336"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵红梅","id_card_no":"341300193809042184"}</t>
-  </si>
-  <si>
-    <t>{"name":"梁成","id_card_no":"360729199309199665"}</t>
-  </si>
-  <si>
-    <t>{"name":"谢琴","id_card_no":"522635197611188224"}</t>
-  </si>
-  <si>
-    <t>{"name":"潘雪梅","id_card_no":"350722199103265368"}</t>
-  </si>
-  <si>
-    <t>{"name":"何小红","id_card_no":"460108195110211760"}</t>
-  </si>
-  <si>
-    <t>{"name":"冯涛","id_card_no":"513401195312167170"}</t>
-  </si>
-  <si>
-    <t>{"name":"林玲","id_card_no":"610116193110112462"}</t>
-  </si>
-  <si>
-    <t>{"name":"周英","id_card_no":"654300196107023770"}</t>
-  </si>
-  <si>
-    <t>{"name":"王建华","id_card_no":"54252119990606464X"}</t>
-  </si>
-  <si>
-    <t>{"name":"吕明","id_card_no":"510600193505269651"}</t>
-  </si>
-  <si>
-    <t>{"name":"王丽丽","id_card_no":"350105195410243516"}</t>
-  </si>
-  <si>
-    <t>{"name":"高桂兰","id_card_no":"371082196310061498"}</t>
-  </si>
-  <si>
-    <t>{"name":"王磊","id_card_no":"45022419560418978X"}</t>
-  </si>
-  <si>
-    <t>{"name":"徐淑珍","id_card_no":"430407198411153726"}</t>
-  </si>
-  <si>
-    <t>{"name":"贾瑜","id_card_no":"430100193110118819"}</t>
-  </si>
-  <si>
-    <t>{"name":"凌建平","id_card_no":"130535196706262461"}</t>
-  </si>
-  <si>
-    <t>{"name":"庞丽丽","id_card_no":"34172219321021308X"}</t>
-  </si>
-  <si>
-    <t>{"name":"全桂珍","id_card_no":"620722193503036845"}</t>
-  </si>
-  <si>
-    <t>{"name":"项宁","id_card_no":"341821194709138123"}</t>
-  </si>
-  <si>
-    <t>{"name":"佘桂珍","id_card_no":"53332419780109877X"}</t>
-  </si>
-  <si>
-    <t>{"name":"关健","id_card_no":"320105193701189113"}</t>
-  </si>
-  <si>
-    <t>{"name":"叶华","id_card_no":"15042919720620421X"}</t>
-  </si>
-  <si>
-    <t>{"name":"谢楠","id_card_no":"430201195808079445"}</t>
-  </si>
-  <si>
-    <t>{"name":"唐超","id_card_no":"61010219841222662X"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨秀荣","id_card_no":"330282200011226020"}</t>
-  </si>
-  <si>
-    <t>{"name":"沈帅","id_card_no":"620826199804166246"}</t>
-  </si>
-  <si>
-    <t>{"name":"关建国","id_card_no":"110102193103172997"}</t>
-  </si>
-  <si>
-    <t>{"name":"王红梅","id_card_no":"320723198409133110"}</t>
-  </si>
-  <si>
-    <t>{"name":"林荣","id_card_no":"441301197003210925"}</t>
-  </si>
-  <si>
-    <t>{"name":"范辉","id_card_no":"130111200107106623"}</t>
-  </si>
-  <si>
-    <t>{"name":"褚龙","id_card_no":"150205199406071711"}</t>
-  </si>
-  <si>
-    <t>{"name":"叶桂花","id_card_no":"361181195806020211"}</t>
-  </si>
-  <si>
-    <t>{"name":"王勇","id_card_no":"430103198304156380"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈帅","id_card_no":"522328198611048728"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵欢","id_card_no":"510107194707052006"}</t>
-  </si>
-  <si>
-    <t>{"name":"游亮","id_card_no":"511424199409214763"}</t>
-  </si>
-  <si>
-    <t>{"name":"牟璐","id_card_no":"610481199207124276"}</t>
-  </si>
-  <si>
-    <t>{"name":"李勇","id_card_no":"431223196302276306"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵兰英","id_card_no":"653000194501304371"}</t>
-  </si>
-  <si>
-    <t>{"name":"董柳","id_card_no":"350504199104278239"}</t>
-  </si>
-  <si>
-    <t>{"name":"王成","id_card_no":"230624197704084053"}</t>
-  </si>
-  <si>
-    <t>{"name":"翁刚","id_card_no":"130700195709074251"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄彬","id_card_no":"441803195806176282"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨琳","id_card_no":"110102196203030535"}</t>
-  </si>
-  <si>
-    <t>{"name":"张娟","id_card_no":"34160219310817188X"}</t>
-  </si>
-  <si>
-    <t>{"name":"蔡杰","id_card_no":"431103193701111627"}</t>
-  </si>
-  <si>
-    <t>{"name":"谢淑兰","id_card_no":"63222219860130745X"}</t>
-  </si>
-  <si>
-    <t>{"name":"左瑞","id_card_no":"511922197110101372"}</t>
-  </si>
-  <si>
-    <t>{"name":"李帆","id_card_no":"320311199605078785"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙刚","id_card_no":"410102195803283081"}</t>
-  </si>
-  <si>
-    <t>{"name":"潘丽","id_card_no":"450821198212043084"}</t>
-  </si>
-  <si>
-    <t>{"name":"李玉珍","id_card_no":"230200199103301194"}</t>
-  </si>
-  <si>
-    <t>{"name":"李琳","id_card_no":"130705199109183032"}</t>
-  </si>
-  <si>
-    <t>{"name":"余帆","id_card_no":"43130219950118791X"}</t>
-  </si>
-  <si>
-    <t>{"name":"王静","id_card_no":"340302199705112749"}</t>
-  </si>
-  <si>
-    <t>{"name":"廖坤","id_card_no":"532325198509223641"}</t>
-  </si>
-  <si>
-    <t>{"name":"王秀华","id_card_no":"620502199709272844"}</t>
-  </si>
-  <si>
-    <t>{"name":"周宁","id_card_no":"320500196012133038"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈敏","id_card_no":"35060019820523509X"}</t>
+    <t>{"name":"谢建平","id_card_no":"430401196610128913"}</t>
+  </si>
+  <si>
+    <t>{"name":"侯淑兰","id_card_no":"230623195202172285"}</t>
+  </si>
+  <si>
+    <t>{"name":"李丽","id_card_no":"510303196312265095"}</t>
+  </si>
+  <si>
+    <t>{"name":"李兵","id_card_no":"340802196009100254"}</t>
+  </si>
+  <si>
+    <t>{"name":"曾凯","id_card_no":"41168119900302215X"}</t>
+  </si>
+  <si>
+    <t>{"name":"李英","id_card_no":"450101199706060846"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑桂芳","id_card_no":"130723199410031196"}</t>
+  </si>
+  <si>
+    <t>{"name":"许杰","id_card_no":"150624198503164959"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘帅","id_card_no":"231225195311030974"}</t>
+  </si>
+  <si>
+    <t>{"name":"王健","id_card_no":"510623194703187883"}</t>
+  </si>
+  <si>
+    <t>{"name":"李淑兰","id_card_no":"654202193109054830"}</t>
+  </si>
+  <si>
+    <t>{"name":"包宁","id_card_no":"632600197705174603"}</t>
+  </si>
+  <si>
+    <t>{"name":"曲琴","id_card_no":"610823198706161155"}</t>
+  </si>
+  <si>
+    <t>{"name":"蔡琴","id_card_no":"140400199511201888"}</t>
+  </si>
+  <si>
+    <t>{"name":"李春梅","id_card_no":"230621193309166908"}</t>
+  </si>
+  <si>
+    <t>{"name":"王亮","id_card_no":"652828198506248054"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵峰","id_card_no":"512081195811271086"}</t>
+  </si>
+  <si>
+    <t>{"name":"杭婷","id_card_no":"422826196811045048"}</t>
+  </si>
+  <si>
+    <t>{"name":"白波","id_card_no":"621124198706171370"}</t>
+  </si>
+  <si>
+    <t>{"name":"易宇","id_card_no":"410421195203190792"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈丽丽","id_card_no":"211001194402191079"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘秀芳","id_card_no":"231223194506156705"}</t>
+  </si>
+  <si>
+    <t>{"name":"毛婷","id_card_no":"340824198306101357"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨海燕","id_card_no":"150902196506145752"}</t>
+  </si>
+  <si>
+    <t>{"name":"张凯","id_card_no":"150725194408299576"}</t>
+  </si>
+  <si>
+    <t>{"name":"尚建国","id_card_no":"220821194201134246"}</t>
+  </si>
+  <si>
+    <t>{"name":"李秀云","id_card_no":"131025199312012405"}</t>
+  </si>
+  <si>
+    <t>{"name":"吴飞","id_card_no":"330702195310253151"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘洋","id_card_no":"420900196605293411"}</t>
+  </si>
+  <si>
+    <t>{"name":"李帆","id_card_no":"411302197610166402"}</t>
+  </si>
+  <si>
+    <t>{"name":"王秀英","id_card_no":"532523199110207351"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘玉兰","id_card_no":"411622200103208950"}</t>
+  </si>
+  <si>
+    <t>{"name":"苑洋","id_card_no":"410502197207124296"}</t>
+  </si>
+  <si>
+    <t>{"name":"丁志强","id_card_no":"230701198808281671"}</t>
+  </si>
+  <si>
+    <t>{"name":"邢阳","id_card_no":"451422193502012318"}</t>
+  </si>
+  <si>
+    <t>{"name":"谌龙","id_card_no":"520326193310066028"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨帅","id_card_no":"420525193203115622"}</t>
+  </si>
+  <si>
+    <t>{"name":"周建军","id_card_no":"150501196602052283"}</t>
+  </si>
+  <si>
+    <t>{"name":"周兵","id_card_no":"350102198801076772"}</t>
+  </si>
+  <si>
+    <t>{"name":"程红","id_card_no":"350825199906075589"}</t>
+  </si>
+  <si>
+    <t>{"name":"郭凤英","id_card_no":"652325198810275456"}</t>
+  </si>
+  <si>
+    <t>{"name":"孙小红","id_card_no":"410108198703013721"}</t>
+  </si>
+  <si>
+    <t>{"name":"庄凯","id_card_no":"610724197208274647"}</t>
+  </si>
+  <si>
+    <t>{"name":"柴瑞","id_card_no":"431124199804244165"}</t>
+  </si>
+  <si>
+    <t>{"name":"林春梅","id_card_no":"350721196301055222"}</t>
+  </si>
+  <si>
+    <t>{"name":"白芳","id_card_no":"150304199512072573"}</t>
+  </si>
+  <si>
+    <t>{"name":"张旭","id_card_no":"410923198905214756"}</t>
+  </si>
+  <si>
+    <t>{"name":"王云","id_card_no":"220105197003062582"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈婷","id_card_no":"45072119490528328X"}</t>
+  </si>
+  <si>
+    <t>{"name":"何建平","id_card_no":"540221195911118714"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘霞","id_card_no":"230109197012270743"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵欢","id_card_no":"130281194401251473"}</t>
+  </si>
+  <si>
+    <t>{"name":"丛小红","id_card_no":"45040319320818862X"}</t>
+  </si>
+  <si>
+    <t>{"name":"胡志强","id_card_no":"210283195702239256"}</t>
+  </si>
+  <si>
+    <t>{"name":"张建华","id_card_no":"341722198211064576"}</t>
+  </si>
+  <si>
+    <t>{"name":"王淑英","id_card_no":"421224197901214675"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘瑞","id_card_no":"220622198407080523"}</t>
+  </si>
+  <si>
+    <t>{"name":"张静","id_card_no":"45102919390228629X"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄晨","id_card_no":"410182196103140414"}</t>
+  </si>
+  <si>
+    <t>{"name":"李成","id_card_no":"350681196810251441"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘倩","id_card_no":"640424195712018351"}</t>
+  </si>
+  <si>
+    <t>{"name":"张桂芳","id_card_no":"610726198406182150"}</t>
+  </si>
+  <si>
+    <t>{"name":"王浩","id_card_no":"22042219881022045X"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑帆","id_card_no":"130523198903201565"}</t>
+  </si>
+  <si>
+    <t>{"name":"胡倩","id_card_no":"620121197607140339"}</t>
+  </si>
+  <si>
+    <t>{"name":"潘桂香","id_card_no":"330302194702018613"}</t>
+  </si>
+  <si>
+    <t>{"name":"谭小红","id_card_no":"220822199603201922"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢林","id_card_no":"621126194403103703"}</t>
+  </si>
+  <si>
+    <t>{"name":"晏秀珍","id_card_no":"513433198803191540"}</t>
+  </si>
+  <si>
+    <t>{"name":"张春梅","id_card_no":"632200198707315257"}</t>
+  </si>
+  <si>
+    <t>{"name":"李宇","id_card_no":"320381196301316815"}</t>
   </si>
 </sst>
 </file>
@@ -3650,10 +3650,10 @@
         <v>300</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q34" t="s">
         <v>345</v>
@@ -3697,10 +3697,10 @@
         <v>300</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q35" t="s">
         <v>346</v>
@@ -3841,10 +3841,10 @@
         <v>300</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q38" t="s">
         <v>349</v>
@@ -3891,10 +3891,10 @@
         <v>300</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q39" t="s">
         <v>350</v>
@@ -5242,8 +5242,11 @@
       <c r="N67" t="s">
         <v>300</v>
       </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
       <c r="P67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q67" t="s">
         <v>378</v>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -1468,217 +1468,217 @@
     <t>false</t>
   </si>
   <si>
-    <t>{"name":"谢建平","id_card_no":"430401196610128913"}</t>
-  </si>
-  <si>
-    <t>{"name":"侯淑兰","id_card_no":"230623195202172285"}</t>
-  </si>
-  <si>
-    <t>{"name":"李丽","id_card_no":"510303196312265095"}</t>
-  </si>
-  <si>
-    <t>{"name":"李兵","id_card_no":"340802196009100254"}</t>
-  </si>
-  <si>
-    <t>{"name":"曾凯","id_card_no":"41168119900302215X"}</t>
-  </si>
-  <si>
-    <t>{"name":"李英","id_card_no":"450101199706060846"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑桂芳","id_card_no":"130723199410031196"}</t>
-  </si>
-  <si>
-    <t>{"name":"许杰","id_card_no":"150624198503164959"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘帅","id_card_no":"231225195311030974"}</t>
-  </si>
-  <si>
-    <t>{"name":"王健","id_card_no":"510623194703187883"}</t>
-  </si>
-  <si>
-    <t>{"name":"李淑兰","id_card_no":"654202193109054830"}</t>
-  </si>
-  <si>
-    <t>{"name":"包宁","id_card_no":"632600197705174603"}</t>
-  </si>
-  <si>
-    <t>{"name":"曲琴","id_card_no":"610823198706161155"}</t>
-  </si>
-  <si>
-    <t>{"name":"蔡琴","id_card_no":"140400199511201888"}</t>
-  </si>
-  <si>
-    <t>{"name":"李春梅","id_card_no":"230621193309166908"}</t>
-  </si>
-  <si>
-    <t>{"name":"王亮","id_card_no":"652828198506248054"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵峰","id_card_no":"512081195811271086"}</t>
-  </si>
-  <si>
-    <t>{"name":"杭婷","id_card_no":"422826196811045048"}</t>
-  </si>
-  <si>
-    <t>{"name":"白波","id_card_no":"621124198706171370"}</t>
-  </si>
-  <si>
-    <t>{"name":"易宇","id_card_no":"410421195203190792"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈丽丽","id_card_no":"211001194402191079"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘秀芳","id_card_no":"231223194506156705"}</t>
-  </si>
-  <si>
-    <t>{"name":"毛婷","id_card_no":"340824198306101357"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨海燕","id_card_no":"150902196506145752"}</t>
-  </si>
-  <si>
-    <t>{"name":"张凯","id_card_no":"150725194408299576"}</t>
-  </si>
-  <si>
-    <t>{"name":"尚建国","id_card_no":"220821194201134246"}</t>
-  </si>
-  <si>
-    <t>{"name":"李秀云","id_card_no":"131025199312012405"}</t>
-  </si>
-  <si>
-    <t>{"name":"吴飞","id_card_no":"330702195310253151"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘洋","id_card_no":"420900196605293411"}</t>
-  </si>
-  <si>
-    <t>{"name":"李帆","id_card_no":"411302197610166402"}</t>
-  </si>
-  <si>
-    <t>{"name":"王秀英","id_card_no":"532523199110207351"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘玉兰","id_card_no":"411622200103208950"}</t>
-  </si>
-  <si>
-    <t>{"name":"苑洋","id_card_no":"410502197207124296"}</t>
-  </si>
-  <si>
-    <t>{"name":"丁志强","id_card_no":"230701198808281671"}</t>
-  </si>
-  <si>
-    <t>{"name":"邢阳","id_card_no":"451422193502012318"}</t>
-  </si>
-  <si>
-    <t>{"name":"谌龙","id_card_no":"520326193310066028"}</t>
-  </si>
-  <si>
-    <t>{"name":"杨帅","id_card_no":"420525193203115622"}</t>
-  </si>
-  <si>
-    <t>{"name":"周建军","id_card_no":"150501196602052283"}</t>
-  </si>
-  <si>
-    <t>{"name":"周兵","id_card_no":"350102198801076772"}</t>
-  </si>
-  <si>
-    <t>{"name":"程红","id_card_no":"350825199906075589"}</t>
-  </si>
-  <si>
-    <t>{"name":"郭凤英","id_card_no":"652325198810275456"}</t>
-  </si>
-  <si>
-    <t>{"name":"孙小红","id_card_no":"410108198703013721"}</t>
-  </si>
-  <si>
-    <t>{"name":"庄凯","id_card_no":"610724197208274647"}</t>
-  </si>
-  <si>
-    <t>{"name":"柴瑞","id_card_no":"431124199804244165"}</t>
-  </si>
-  <si>
-    <t>{"name":"林春梅","id_card_no":"350721196301055222"}</t>
-  </si>
-  <si>
-    <t>{"name":"白芳","id_card_no":"150304199512072573"}</t>
-  </si>
-  <si>
-    <t>{"name":"张旭","id_card_no":"410923198905214756"}</t>
-  </si>
-  <si>
-    <t>{"name":"王云","id_card_no":"220105197003062582"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈婷","id_card_no":"45072119490528328X"}</t>
-  </si>
-  <si>
-    <t>{"name":"何建平","id_card_no":"540221195911118714"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘霞","id_card_no":"230109197012270743"}</t>
-  </si>
-  <si>
-    <t>{"name":"赵欢","id_card_no":"130281194401251473"}</t>
-  </si>
-  <si>
-    <t>{"name":"丛小红","id_card_no":"45040319320818862X"}</t>
-  </si>
-  <si>
-    <t>{"name":"胡志强","id_card_no":"210283195702239256"}</t>
-  </si>
-  <si>
-    <t>{"name":"张建华","id_card_no":"341722198211064576"}</t>
-  </si>
-  <si>
-    <t>{"name":"王淑英","id_card_no":"421224197901214675"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘瑞","id_card_no":"220622198407080523"}</t>
-  </si>
-  <si>
-    <t>{"name":"张静","id_card_no":"45102919390228629X"}</t>
-  </si>
-  <si>
-    <t>{"name":"黄晨","id_card_no":"410182196103140414"}</t>
-  </si>
-  <si>
-    <t>{"name":"李成","id_card_no":"350681196810251441"}</t>
-  </si>
-  <si>
-    <t>{"name":"刘倩","id_card_no":"640424195712018351"}</t>
-  </si>
-  <si>
-    <t>{"name":"张桂芳","id_card_no":"610726198406182150"}</t>
-  </si>
-  <si>
-    <t>{"name":"王浩","id_card_no":"22042219881022045X"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑帆","id_card_no":"130523198903201565"}</t>
-  </si>
-  <si>
-    <t>{"name":"胡倩","id_card_no":"620121197607140339"}</t>
-  </si>
-  <si>
-    <t>{"name":"潘桂香","id_card_no":"330302194702018613"}</t>
-  </si>
-  <si>
-    <t>{"name":"谭小红","id_card_no":"220822199603201922"}</t>
-  </si>
-  <si>
-    <t>{"name":"谢林","id_card_no":"621126194403103703"}</t>
-  </si>
-  <si>
-    <t>{"name":"晏秀珍","id_card_no":"513433198803191540"}</t>
-  </si>
-  <si>
-    <t>{"name":"张春梅","id_card_no":"632200198707315257"}</t>
-  </si>
-  <si>
-    <t>{"name":"李宇","id_card_no":"320381196301316815"}</t>
+    <t>{"name":"王玲","id_card_no":"532923196108270077"}</t>
+  </si>
+  <si>
+    <t>{"name":"王琳","id_card_no":"37048119550327246X"}</t>
+  </si>
+  <si>
+    <t>{"name":"尹帆","id_card_no":"53262719771214453X"}</t>
+  </si>
+  <si>
+    <t>{"name":"夏秀兰","id_card_no":"621225195501105642"}</t>
+  </si>
+  <si>
+    <t>{"name":"张建平","id_card_no":"36011119570503370X"}</t>
+  </si>
+  <si>
+    <t>{"name":"张丹丹","id_card_no":"542426197712153326"}</t>
+  </si>
+  <si>
+    <t>{"name":"李龙","id_card_no":"620423195404066300"}</t>
+  </si>
+  <si>
+    <t>{"name":"韩小红","id_card_no":"53012719310101750X"}</t>
+  </si>
+  <si>
+    <t>{"name":"徐瑜","id_card_no":"520222194312053080"}</t>
+  </si>
+  <si>
+    <t>{"name":"魏建军","id_card_no":"510722199403029113"}</t>
+  </si>
+  <si>
+    <t>{"name":"徐宇","id_card_no":"520113198311038969"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈柳","id_card_no":"500241197312285796"}</t>
+  </si>
+  <si>
+    <t>{"name":"王桂兰","id_card_no":"431322193512051231"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈华","id_card_no":"420683198202123235"}</t>
+  </si>
+  <si>
+    <t>{"name":"周艳","id_card_no":"420323193709239733"}</t>
+  </si>
+  <si>
+    <t>{"name":"蔺勇","id_card_no":"211011196806010248"}</t>
+  </si>
+  <si>
+    <t>{"name":"吴欣","id_card_no":"510115199209197133"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘冬梅","id_card_no":"411523199102124427"}</t>
+  </si>
+  <si>
+    <t>{"name":"唐英","id_card_no":"640300195004137871"}</t>
+  </si>
+  <si>
+    <t>{"name":"常宇","id_card_no":"330303197011185340"}</t>
+  </si>
+  <si>
+    <t>{"name":"吴玉英","id_card_no":"320411198610317817"}</t>
+  </si>
+  <si>
+    <t>{"name":"王静","id_card_no":"330727194009224979"}</t>
+  </si>
+  <si>
+    <t>{"name":"申林","id_card_no":"532925197712155160"}</t>
+  </si>
+  <si>
+    <t>{"name":"黄倩","id_card_no":"510681193103080600"}</t>
+  </si>
+  <si>
+    <t>{"name":"郑玉","id_card_no":"410400199409062004"}</t>
+  </si>
+  <si>
+    <t>{"name":"陶秀荣","id_card_no":"65292919660807529X"}</t>
+  </si>
+  <si>
+    <t>{"name":"周秀珍","id_card_no":"141023194708203044"}</t>
+  </si>
+  <si>
+    <t>{"name":"左桂花","id_card_no":"32020419470701270X"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈秀华","id_card_no":"440704200010050178"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨桂珍","id_card_no":"140107193610023125"}</t>
+  </si>
+  <si>
+    <t>{"name":"高秀英","id_card_no":"110109199203295259"}</t>
+  </si>
+  <si>
+    <t>{"name":"李俊","id_card_no":"532525198605233795"}</t>
+  </si>
+  <si>
+    <t>{"name":"吴超","id_card_no":"630121193406303035"}</t>
+  </si>
+  <si>
+    <t>{"name":"夏莉","id_card_no":"370685199306095251"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘健","id_card_no":"330225198704264903"}</t>
+  </si>
+  <si>
+    <t>{"name":"覃博","id_card_no":"532328194912179151"}</t>
+  </si>
+  <si>
+    <t>{"name":"倪英","id_card_no":"441601199605041538"}</t>
+  </si>
+  <si>
+    <t>{"name":"李娜","id_card_no":"650205193609013731"}</t>
+  </si>
+  <si>
+    <t>{"name":"马秀华","id_card_no":"361181199605211212"}</t>
+  </si>
+  <si>
+    <t>{"name":"李辉","id_card_no":"530828197610098611"}</t>
+  </si>
+  <si>
+    <t>{"name":"张磊","id_card_no":"51192119850424071X"}</t>
+  </si>
+  <si>
+    <t>{"name":"丛萍","id_card_no":"410100199409047297"}</t>
+  </si>
+  <si>
+    <t>{"name":"姜军","id_card_no":"230505197911014459"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢兵","id_card_no":"37120219800820680X"}</t>
+  </si>
+  <si>
+    <t>{"name":"王雷","id_card_no":"130434194101208031"}</t>
+  </si>
+  <si>
+    <t>{"name":"何丹","id_card_no":"341203195102075225"}</t>
+  </si>
+  <si>
+    <t>{"name":"纪楠","id_card_no":"350300196004064639"}</t>
+  </si>
+  <si>
+    <t>{"name":"赵丽华","id_card_no":"51340119900707737X"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨秀兰","id_card_no":"620922196403184458"}</t>
+  </si>
+  <si>
+    <t>{"name":"李利","id_card_no":"140203196308142098"}</t>
+  </si>
+  <si>
+    <t>{"name":"周淑珍","id_card_no":"321200197801104781"}</t>
+  </si>
+  <si>
+    <t>{"name":"姜荣","id_card_no":"370684195805138493"}</t>
+  </si>
+  <si>
+    <t>{"name":"雷桂芝","id_card_no":"450330196704260720"}</t>
+  </si>
+  <si>
+    <t>{"name":"莫丹","id_card_no":"440981195807188756"}</t>
+  </si>
+  <si>
+    <t>{"name":"胡俊","id_card_no":"150802196706282959"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘秀梅","id_card_no":"411722194806020302"}</t>
+  </si>
+  <si>
+    <t>{"name":"高淑兰","id_card_no":"210304198105163381"}</t>
+  </si>
+  <si>
+    <t>{"name":"周娜","id_card_no":"140525196911138434"}</t>
+  </si>
+  <si>
+    <t>{"name":"覃芳","id_card_no":"512022197601024449"}</t>
+  </si>
+  <si>
+    <t>{"name":"任凤兰","id_card_no":"321322198905079590"}</t>
+  </si>
+  <si>
+    <t>{"name":"王梅","id_card_no":"441303195212083639"}</t>
+  </si>
+  <si>
+    <t>{"name":"张秀梅","id_card_no":"230281199404179776"}</t>
+  </si>
+  <si>
+    <t>{"name":"马岩","id_card_no":"150221195007270571"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈建华","id_card_no":"610426196402022074"}</t>
+  </si>
+  <si>
+    <t>{"name":"杨博","id_card_no":"130102197207224941"}</t>
+  </si>
+  <si>
+    <t>{"name":"李春梅","id_card_no":"421201193308216298"}</t>
+  </si>
+  <si>
+    <t>{"name":"陈淑珍","id_card_no":"440514194304294665"}</t>
+  </si>
+  <si>
+    <t>{"name":"奚琳","id_card_no":"14052119340316096X"}</t>
+  </si>
+  <si>
+    <t>{"name":"谢旭","id_card_no":"610428193305057629"}</t>
+  </si>
+  <si>
+    <t>{"name":"王莹","id_card_no":"230822197209289674"}</t>
+  </si>
+  <si>
+    <t>{"name":"安淑华","id_card_no":"451281193701048099"}</t>
   </si>
 </sst>
 </file>
@@ -3650,10 +3650,10 @@
         <v>300</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="s">
         <v>345</v>
@@ -3697,10 +3697,10 @@
         <v>300</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q35" t="s">
         <v>346</v>
@@ -3841,10 +3841,10 @@
         <v>300</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="s">
         <v>349</v>
@@ -3891,10 +3891,10 @@
         <v>300</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q39" t="s">
         <v>350</v>
@@ -4129,10 +4129,10 @@
         <v>300</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q44" t="s">
         <v>355</v>
@@ -4226,10 +4226,10 @@
         <v>300</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q46" t="s">
         <v>357</v>
@@ -5196,10 +5196,10 @@
         <v>300</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q66" t="s">
         <v>377</v>
@@ -5290,10 +5290,10 @@
         <v>300</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q68" t="s">
         <v>379</v>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,75 +373,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>table_main_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>table_main_1_subA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>table_main_1_subB</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>main_key</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>main_1_key</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -448,24 +457,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>per_com_case_info</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司1001';
@@ -478,40 +490,46 @@
 info_per_bus_shareholder.ent_status[1]='注销'</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司1001'</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>info_com_bus_case.basic_id</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>per_com_case_info=1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{"name":"陶淑兰","id_card_no":"542126198604080164"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>{"name":"柳丽","id_card_no":"46010119450809610X"}</t>
         </is>
       </c>
     </row>
@@ -520,25 +538,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>per_com_case_info</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司001';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -546,41 +567,47 @@
 info_per_bus_shareholder.ent_status[0]='注销'</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司001'</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>per_com_case_info=0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{"name":"索玉","id_card_no":"13110019380616109X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{"name":"家琴","id_card_no":"211404197806232054"}</t>
         </is>
       </c>
     </row>
@@ -589,24 +616,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>per_com_case_info</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
@@ -623,36 +653,42 @@
 info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司'</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>per_com_case_info=0</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{"name":"葛慧","id_card_no":"211401195810084041"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>{"name":"尹娟","id_card_no":"421101198904293801"}</t>
         </is>
       </c>
     </row>
@@ -661,24 +697,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>per_com_case_info</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
@@ -703,36 +742,42 @@
 info_per_bus_shareholder.jhi_date[3]='2017-07-05';</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司'</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>per_com_case_info=0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{"name":"宰杨","id_card_no":"141124194807310373"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>{"name":"阮丽华","id_card_no":"130929199604298293"}</t>
         </is>
       </c>
     </row>
@@ -741,24 +786,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>per_com_shares_frost</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司002';
@@ -771,41 +819,47 @@
 info_per_bus_shareholder.ent_status[1]='注销'</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司002'</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结'</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>per_com_shares_frost=1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{"name":"支龙","id_card_no":"330483196610067699"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{"name":"龚佳","id_card_no":"450324194904137333"}</t>
         </is>
       </c>
     </row>
@@ -814,24 +868,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>per_com_shares_frost</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
@@ -844,7 +901,7 @@
 info_per_bus_shareholder.ent_status[1]='注销'</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123';
@@ -853,41 +910,47 @@
 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司003'</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结';
 info_com_bus_shares_frost.judicial_froz_state[1]='已解冻'</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>per_com_shares_frost=1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{"name":"叶燕","id_card_no":"210421193612178923"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{"name":"干桂芝","id_card_no":"41010019991008477X"}</t>
         </is>
       </c>
     </row>
@@ -896,24 +959,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>per_com_shares_frost</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司004';
@@ -926,41 +992,47 @@
 info_per_bus_shareholder.ent_status[1]='注销'</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司004'</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结，已解冻'</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>per_com_shares_frost=0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{"name":"成玉珍","id_card_no":"131181195512069439"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>{"name":"楚想","id_card_no":"330103197804276508"}</t>
         </is>
       </c>
     </row>
@@ -969,24 +1041,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>per_com_shares_frost_his</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司005';
@@ -999,41 +1074,47 @@
 info_per_bus_shareholder.ent_status[1]='注销'</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司005'</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结'</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>per_com_shares_frost_his=0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{"name":"冯淑兰","id_card_no":"522622193309042785"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>{"name":"殷杰","id_card_no":"620301195601101650"}</t>
         </is>
       </c>
     </row>
@@ -1042,25 +1123,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>per_com_shares_frost_his</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1068,7 +1152,7 @@
 info_per_bus_shareholder.ent_status[0]='注销'</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123';
@@ -1077,41 +1161,47 @@
 </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司006'</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结';
 info_com_bus_shares_frost.judicial_froz_state[1]='已解冻'</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>per_com_shares_frost_his=1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{"name":"谯佳","id_card_no":"44030319510831423X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>{"name":"公淑英","id_card_no":"130628199610075157"}</t>
         </is>
       </c>
     </row>
@@ -1120,25 +1210,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>per_com_shares_frost_his</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1146,7 +1239,7 @@
 info_per_bus_shareholder.ent_status[0]='注销'</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123';
@@ -1155,40 +1248,46 @@
 </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司湖北分公司007'</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>info_com_bus_shares_frost.basic_id;
 info_com_bus_shares_frost.judicial_froz_state[0]='冻结，已解冻'</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>per_com_shares_frost_his=1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{"name":"鲍霞","id_card_no":"131124198005072234"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>{"name":"赵志强","id_card_no":"63022119830531629X"}</t>
         </is>
       </c>
     </row>
@@ -1197,25 +1296,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司008';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1223,42 +1325,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司008'</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='有效'
 </t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>per_com_shares_impawn=1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{"name":"余峰","id_card_no":"431228193202206122"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>{"name":"苍岩","id_card_no":"140400195201199171"}</t>
         </is>
       </c>
     </row>
@@ -1267,25 +1375,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司009';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1293,14 +1404,14 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司009'</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='有效';
@@ -1308,28 +1419,34 @@
 </t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>per_com_shares_impawn=1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{"name":"羿强","id_card_no":"370404193408260231"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>{"name":"长亮","id_card_no":"511304194702069557"}</t>
         </is>
       </c>
     </row>
@@ -1338,25 +1455,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司010';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1364,48 +1484,54 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司010'</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='失效'
 </t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t>per_com_shares_impawn=0</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{"name":"汝峰","id_card_no":"61030119850507587X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>{"name":"闻龙","id_card_no":"622925198802189256"}</t>
         </is>
       </c>
     </row>
@@ -1414,25 +1540,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn_his</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司011';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1440,42 +1569,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司011'</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='有效'
 </t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>per_com_shares_impawn_his=0</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{"name":"房芳","id_card_no":"371001194006283806"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>{"name":"籍雪","id_card_no":"652301195503307847"}</t>
         </is>
       </c>
     </row>
@@ -1484,25 +1619,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn_his</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司012';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1510,14 +1648,14 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司012'</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='有效';
@@ -1525,28 +1663,34 @@
 </t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>per_com_shares_impawn_his=1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{"name":"连玉兰","id_card_no":"52030119860209005X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>{"name":"支红","id_card_no":"120113197708110675"}</t>
         </is>
       </c>
     </row>
@@ -1555,25 +1699,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>per_com_shares_impawn_his</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司013';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1581,48 +1728,54 @@
 info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司013'</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_shares_impawn.basic_id;
 info_com_bus_shares_impawn.imp_exe_state[0]='失效'
 </t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
         <is>
           <t>per_com_shares_impawn_his=1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{"name":"蒯婷婷","id_card_no":"350429193502074156"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>{"name":"桓成","id_card_no":"360722199908055802"}</t>
         </is>
       </c>
     </row>
@@ -1631,25 +1784,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>per_com_mor_detail</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司014';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1657,42 +1813,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司014'</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='有效'
 </t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t>per_com_mor_detail=1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{"name":"邓志强","id_card_no":"450331198410169601"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>{"name":"柏莉","id_card_no":"431202194105077235"}</t>
         </is>
       </c>
     </row>
@@ -1701,25 +1863,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>per_com_mor_detail</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司015';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1727,42 +1892,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司015'</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='有效';
 info_com_bus_mort_basic.mort_status[1]='失效'</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>per_com_mor_detail=1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{"name":"狐岩","id_card_no":"150926197409157749"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>{"name":"丘东","id_card_no":"340207196806210869"}</t>
         </is>
       </c>
     </row>
@@ -1771,25 +1942,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>per_com_mor_detail</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司016';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1797,47 +1971,53 @@
 info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司016'</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='失效'</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t>per_com_mor_detail=0</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{"name":"宿丽","id_card_no":"632701199101301553"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>{"name":"薛娟","id_card_no":"522600195304015754"}</t>
         </is>
       </c>
     </row>
@@ -1846,25 +2026,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>per_com_mor_detail_his</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司017';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1872,42 +2055,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司017'</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t xml:space="preserve">info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='有效'
 </t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>per_com_mor_detail_his=0</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{"name":"解磊","id_card_no":"330824194210166770"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>{"name":"甘琳","id_card_no":"341023197407239108"}</t>
         </is>
       </c>
     </row>
@@ -1916,25 +2105,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>per_com_mor_detail_his</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司018';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -1942,42 +2134,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司018'</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='有效';
 info_com_bus_mort_basic.mort_status[1]='失效'</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t>per_com_mor_detail_his=1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{"name":"连岩","id_card_no":"140122196405220186"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>{"name":"廉旭","id_card_no":"420202196903016193"}</t>
         </is>
       </c>
     </row>
@@ -1986,25 +2184,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>22</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>per_com_mor_detail_his</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司019';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2012,47 +2213,53 @@
 info_per_bus_shareholder.ent_status[0]='存续（在营、开业、在册）'</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司019'</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>info_com_bus_mort_basic.basic_id;
 info_com_bus_mort_basic.mort_status[0]='失效'</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>per_com_mor_detail_his=1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{"name":"弓涛","id_card_no":"140822197104015480"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>{"name":"司晶","id_card_no":"340826196806069828"}</t>
         </is>
       </c>
     </row>
@@ -2061,25 +2268,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>23</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>per_com_liquidation</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司020';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2087,40 +2297,46 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司020'</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>info_com_bus_liquidation.basic_id</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t>per_com_liquidation=1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{"name":"微军","id_card_no":"44020119860124367X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>{"name":"贲颖","id_card_no":"230523196903161027"}</t>
         </is>
       </c>
     </row>
@@ -2129,25 +2345,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>24</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>per_com_liquidation</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司021';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2155,36 +2374,42 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司021'</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>per_com_liquidation=0</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{"name":"游桂珍","id_card_no":"620801196406127726"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>{"name":"樊娟","id_card_no":"520628193603281011"}</t>
         </is>
       </c>
     </row>
@@ -2193,25 +2418,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>per_com_exception</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司021';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2219,41 +2447,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司021'</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.result_out[0]='已移出'</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>per_com_exception=0</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{"name":"幸璐","id_card_no":"445300194005296121"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>{"name":"弘坤","id_card_no":"650203193607287808"}</t>
         </is>
       </c>
     </row>
@@ -2262,25 +2496,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>26</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>per_com_exception</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司022';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2288,40 +2525,46 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司022'</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>per_com_exception=1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{"name":"钭倩","id_card_no":"230833197011290687"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>{"name":"钟畅","id_card_no":"350300199007252305"}</t>
         </is>
       </c>
     </row>
@@ -2330,25 +2573,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>27</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>per_com_exception_his</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司023';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2356,41 +2602,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司023'</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.result_out[0]='已移出'</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>per_com_exception_his=1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{"name":"戴秀梅","id_card_no":"610102197504036490"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>{"name":"左淑华","id_card_no":"361030197601134139"}</t>
         </is>
       </c>
     </row>
@@ -2399,25 +2651,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>per_com_exception_his</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司024';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2425,40 +2680,46 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司024'</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>per_com_exception_his=0</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{"name":"邴晨","id_card_no":"511101197808147123"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>{"name":"王燕","id_card_no":"440523198908200935"}</t>
         </is>
       </c>
     </row>
@@ -2467,25 +2728,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>29</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>per_com_illegal_list</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司025';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2493,41 +2757,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司025'</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>info_com_bus_illegal.basic_id;
 info_com_bus_illegal.illegal_rresult_out[0]='已移出'</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
         <is>
           <t>per_com_illegal_list=0</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{"name":"欧倩","id_card_no":"500110195603011542"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>{"name":"羿凤兰","id_card_no":"430422194010147419"}</t>
         </is>
       </c>
     </row>
@@ -2536,25 +2806,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>30</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>per_com_illegal_list</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司026';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2562,40 +2835,46 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司026'</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>info_com_bus_illegal.basic_id</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t>per_com_illegal_list=1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{"name":"干婷婷","id_card_no":"530828195104175291"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>{"name":"印辉","id_card_no":"130732197510104660"}</t>
         </is>
       </c>
     </row>
@@ -2604,25 +2883,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>31</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>per_com_illegal_list_his</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司027';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2630,41 +2912,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司027'</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>info_com_bus_illegal.basic_id;
 info_com_bus_illegal.illegal_rresult_out[0]='已移出'</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
         <is>
           <t>per_com_illegal_list_his=1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{"name":"丘云","id_card_no":"14022619591205588X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>{"name":"公娜","id_card_no":"620300195502145731"}</t>
         </is>
       </c>
     </row>
@@ -2673,25 +2961,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>32</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>per_com_illegal_list_his</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司028';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2699,40 +2990,46 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司028'</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>info_com_bus_illegal.basic_id</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t>per_com_illegal_list_his=0</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{"name":"饶敏","id_card_no":"360983194311074913"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>{"name":"闾峰","id_card_no":"530426197611204469"}</t>
         </is>
       </c>
     </row>
@@ -2741,25 +3038,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>33</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>per_com_saicChanLegal</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司029';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2767,15 +3067,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司029';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
@@ -2786,28 +3086,34 @@
 info_com_bus_alter.alt_item[2]='法定代表人变更'</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>per_com_saicChanLegal=2</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{"name":"戚佳","id_card_no":"42282819460221737X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>{"name":"糜欣","id_card_no":"150724193904279899"}</t>
         </is>
       </c>
     </row>
@@ -2816,25 +3122,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>34</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>per_com_saicChanLegal</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司030';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2842,15 +3151,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司030';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
@@ -2859,28 +3168,34 @@
 info_com_bus_alter.alt_item[1]='投资人变更'</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>per_com_saicChanLegal=1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{"name":"华霞","id_card_no":"140722196611033122"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>{"name":"鄢浩","id_card_no":"320404197307098078"}</t>
         </is>
       </c>
     </row>
@@ -2889,25 +3204,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>35</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>per_com_saicChanLegal</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司031';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2915,49 +3233,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司031';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
 info_com_bus_alter.alt_item[0]='投资人变更'</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t>per_com_saicChanLegal=0</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{"name":"庚洋","id_card_no":"410403197511106958"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>{"name":"萧平","id_card_no":"331024197303194376"}</t>
         </is>
       </c>
     </row>
@@ -2966,25 +3290,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>36</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>per_com_saicChanInvestor</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司032';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -2992,15 +3319,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司032';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
@@ -3009,28 +3336,34 @@
 info_com_bus_alter.alt_item[1]='法定代表人变更'</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>per_com_saicChanInvestor=0</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{"name":"麻晨","id_card_no":"511526196612114404"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>{"name":"迟桂芳","id_card_no":"440607195006172201"}</t>
         </is>
       </c>
     </row>
@@ -3039,25 +3372,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>37</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>per_com_saicChanInvestor</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司033';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3065,15 +3401,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司033';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
@@ -3082,28 +3418,34 @@
 info_com_bus_alter.alt_item[1]='投资人变更'</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>per_com_saicChanInvestor=1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{"name":"凌斌","id_card_no":"440224196403012219"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>{"name":"璩帅","id_card_no":"210400199709032061"}</t>
         </is>
       </c>
     </row>
@@ -3112,25 +3454,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>per_com_saicChanInvestor</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司034';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3138,21 +3483,21 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司034';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-09-01';
@@ -3161,28 +3506,34 @@
 info_com_bus_alter.alt_item[1]='投资人变更'</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
         <is>
           <t>per_com_saicChanInvestor=2</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{"name":"阳建军","id_card_no":"220100199904248541"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>{"name":"璩磊","id_card_no":"370701199804132199"}</t>
         </is>
       </c>
     </row>
@@ -3191,25 +3542,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>39</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>per_com_exception_result</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司035';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3217,43 +3571,50 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司035'</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.date_out[0]='2018-07-03';
 info_com_bus_exception.result_in[0]='年度报告';
+info_com_bus_exception.date_out[1]=;
 info_com_bus_exception.result_in[1]='无法取得联系'</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
         <is>
           <t>per_com_exception_result=2</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{"name":"马磊","id_card_no":"371103199307036084"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>{"name":"陆桂香","id_card_no":"330185196610029963"}</t>
         </is>
       </c>
     </row>
@@ -3262,25 +3623,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>per_com_exception_result</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司036';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3288,42 +3652,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司036'</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.date_out[0]='2018-07-03';
 info_com_bus_exception.result_in[0]='年度报告'</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
         <is>
           <t>per_com_exception_result=0</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{"name":"邬秀英","id_card_no":"511822199812228662"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>{"name":"巴倩","id_card_no":"410526197907066497"}</t>
         </is>
       </c>
     </row>
@@ -3332,25 +3702,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>41</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>per_com_exception_result</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司037';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3358,48 +3731,54 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司037'</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.result_in[0]='弄虚作假';
 info_com_bus_exception.result_in[1]='无法取得联系'</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>per_com_exception_result=3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{"name":"江丽","id_card_no":"232700197707077170"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>{"name":"东勇","id_card_no":"522634199612036495"}</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3787,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>42</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>per_com_exception_result</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司038';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3434,41 +3816,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司038'</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>info_com_bus_exception.basic_id;
 info_com_bus_exception.result_in[0]='年度报告'</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t>per_com_exception_result=1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{"name":"嵇慧","id_card_no":"360429196209079666"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>{"name":"杭瑜","id_card_no":"52012119360516575X"}</t>
         </is>
       </c>
     </row>
@@ -3477,25 +3865,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>43</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>per_com_saicChanRunscope</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司039';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3503,41 +3894,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司039'</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_item[0]='经营范围变更'</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t>per_com_saicChanRunscope=1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{"name":"经颖","id_card_no":"540127197405125462"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>{"name":"吕俊","id_card_no":"330300194705086934"}</t>
         </is>
       </c>
     </row>
@@ -3546,25 +3943,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>44</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>per_com_saicChanRunscope</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司040';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3572,41 +3972,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司040'</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_item[0]='投资人变更'</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
         <is>
           <t>per_com_saicChanRunscope=0</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{"name":"韦秀荣","id_card_no":"510303198606084467"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>{"name":"融淑珍","id_card_no":"431103199710106448"}</t>
         </is>
       </c>
     </row>
@@ -3615,25 +4021,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>45</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>per_com_saicChanRunscope</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司041';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3641,20 +4050,20 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司041'</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_item[0]='经营范围变更';
@@ -3662,28 +4071,34 @@
 info_com_bus_alter.alt_item[2]='经营范围变更'</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>per_com_saicChanRunscope=2</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{"name":"壤鹏","id_card_no":"340500194512274106"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>{"name":"和建","id_card_no":"36032319600113663X"}</t>
         </is>
       </c>
     </row>
@@ -3692,25 +4107,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>46</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>per_com_legper_relent_revoke</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司042';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3718,42 +4136,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司042'</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.funded_ratio[0]='0.2';
 info_com_bus_entinvitem.ent_status[0]='吊销'</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t>per_com_legper_relent_revoke=1</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{"name":"管平","id_card_no":"620422196901193966"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>{"name":"尉桂英","id_card_no":"210403197001317176"}</t>
         </is>
       </c>
     </row>
@@ -3762,25 +4186,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>47</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>per_com_legper_relent_revoke</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司043';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3788,42 +4215,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司043'</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.funded_ratio[0]='0.2';
 info_com_bus_frinv.ent_status[0]='吊销'</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>per_com_legper_relent_revoke=1</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{"name":"文丽华","id_card_no":"630121196011098237"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>{"name":"郁龙","id_card_no":"430822198605238416"}</t>
         </is>
       </c>
     </row>
@@ -3832,25 +4265,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>48</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>per_com_legper_relent_revoke</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司044';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3858,20 +4294,20 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司044'</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.funded_ratio[0]='0.2';
@@ -3882,28 +4318,34 @@
 info_com_bus_entinvitem.ent_status[2]='吊销'</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t>per_com_legper_relent_revoke=1</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{"name":"轩刚","id_card_no":"520422199806037236"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>{"name":"连成","id_card_no":"433125196504168724"}</t>
         </is>
       </c>
     </row>
@@ -3912,25 +4354,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>49</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>per_com_legper_outwardCount1</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司045';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -3938,42 +4383,48 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司045'</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司江苏分公司';
 info_com_bus_entinvitem.funded_ratio[0]='0.3'</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>per_com_legper_outwardCount1=1</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{"name":"相芳","id_card_no":"421102199803272025"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>{"name":"利磊","id_card_no":"130634195207222195"}</t>
         </is>
       </c>
     </row>
@@ -3982,25 +4433,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>50</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>per_com_legper_outwardCount1</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司046';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4008,48 +4462,54 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司046'</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司江苏分公司';
 info_com_bus_entinvitem.funded_ratio[0]='0.3'</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司江苏分公司';
 info_com_bus_frinv.funded_ratio[0]='0.3'</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>per_com_legper_outwardCount1=1</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{"name":"雕桂花","id_card_no":"140521198302013453"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>{"name":"暴勇","id_card_no":"150621197412253792"}</t>
         </is>
       </c>
     </row>
@@ -4058,25 +4518,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>51</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>per_com_legper_outwardCount1</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司047';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4084,48 +4547,54 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司047'</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司江苏分公司';
 info_com_bus_frinv.funded_ratio[0]='0.3'</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>per_com_legper_outwardCount1=1</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{"name":"汲浩","id_card_no":"420582197305127988"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>{"name":"印雷","id_card_no":"370405199202221484"}</t>
         </is>
       </c>
     </row>
@@ -4134,25 +4603,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>52</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>per_com_legper_outwardCount1</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司048';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4160,21 +4632,21 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司048'</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司江苏分公司';
 info_com_bus_entinvitem.funded_ratio[0]='0.3'</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司湖南分公司';
@@ -4183,27 +4655,33 @@
 info_com_bus_frinv.funded_ratio[1]='0.3'</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>per_com_legper_outwardCount1=2</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{"name":"储宇","id_card_no":"510722199601107741"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>{"name":"通小红","id_card_no":"33010519590311054X"}</t>
         </is>
       </c>
     </row>
@@ -4212,25 +4690,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>53</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>per_com_industryphycode</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司049';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4238,41 +4719,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司049'</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.industry_phy_code[0]='F'</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t>per_com_industryphycode=F</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{"name":"明慧","id_card_no":"210504195404272331"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>{"name":"仉玉珍","id_card_no":"370785198002047016"}</t>
         </is>
       </c>
     </row>
@@ -4281,25 +4770,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>54</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>per_com_industryphycode</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司050';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4307,47 +4799,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司050'</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.industry_phy_code[0]='A'</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t>per_com_industryphycode=A</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{"name":"国磊","id_card_no":"320583193207022335"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>{"name":"封桂荣","id_card_no":"360313196205122595"}</t>
         </is>
       </c>
     </row>
@@ -4356,25 +4856,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>55</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>per_com_endtime</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司051';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4382,41 +4885,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司051'</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.open_to[0]='2025-07-03'</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
         <is>
           <t>per_com_endtime=2025-07-03</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>45841</v>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{"name":"滑洋","id_card_no":"520181195101091369"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>{"name":"经健","id_card_no":"331123197806067095"}</t>
         </is>
       </c>
     </row>
@@ -4425,25 +4934,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>56</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>per_com_endtime</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司052';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4451,47 +4963,53 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司052'</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.open_to[0]='2020-07-03'</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
         <is>
           <t>per_com_endtime=2020-07-03</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>44015</v>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{"name":"张淑兰","id_card_no":"350425197512021456"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>{"name":"束建军","id_card_no":"511123193808288997"}</t>
         </is>
       </c>
     </row>
@@ -4500,25 +5018,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>57</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>per_com_openfrom</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司053';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4526,41 +5047,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司053'</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.open_from[0]='2013-06-03'</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
         <is>
           <t>per_com_openfrom=2013-06-03</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>41428</v>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{"name":"敖涛","id_card_no":"150202194806238048"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>{"name":"房玉华","id_card_no":"340201195901062689"}</t>
         </is>
       </c>
     </row>
@@ -4569,25 +5096,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>58</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>per_com_openfrom</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司054';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4595,47 +5125,53 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司054'</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.open_from[0]='2018-06-03'</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
         <is>
           <t>per_com_openfrom=2018-06-03</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>43254</v>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{"name":"文淑珍","id_card_no":"654000198403124843"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>{"name":"官桂珍","id_card_no":"230604199103170398"}</t>
         </is>
       </c>
     </row>
@@ -4644,25 +5180,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>59</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>per_com_esdate</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司055';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4670,41 +5209,47 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司055'</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.es_date[0]='2013-06-03'</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
         <is>
           <t>per_com_esdate=2013-06-03</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>41428</v>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{"name":"骆静","id_card_no":"542422195502064881"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>{"name":"宫桂芳","id_card_no":"652929199211082444"}</t>
         </is>
       </c>
     </row>
@@ -4713,25 +5258,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>60</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>per_com_esdate</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司056';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4739,47 +5287,53 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司056'</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.es_date[0]='2018-06-03'</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
         <is>
           <t>per_com_esdate=2018-06-03</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>43254</v>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{"name":"晋桂芝","id_card_no":"140400195607058096"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>{"name":"糜荣","id_card_no":"230902195603267247"}</t>
         </is>
       </c>
     </row>
@@ -4788,25 +5342,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>61</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>per_com_areacode</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司057';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4814,41 +5371,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司057'</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.area_code[0]='310118'</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
         <is>
           <t>per_com_areacode=310118</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>310118</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{"name":"佘军","id_card_no":"12010119541019762X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>{"name":"连红梅","id_card_no":"522623194404044237"}</t>
         </is>
       </c>
     </row>
@@ -4857,25 +5422,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
         <v>62</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>per_com_areacode</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司058';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4883,47 +5451,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司058'</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.area_code[0]='340123'</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
         <is>
           <t>per_com_areacode=340123</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>340123</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{"name":"颜兵","id_card_no":"35012119551014657X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>{"name":"何峰","id_card_no":"350426194405115644"}</t>
         </is>
       </c>
     </row>
@@ -4932,25 +5508,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
         <v>63</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>per_com_industrycode</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司059';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -4958,41 +5537,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司059'</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.industry_code[0]='3312'</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
         <is>
           <t>per_com_industrycode=3312</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>3312</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{"name":"赖艳","id_card_no":"530722195010130638"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>{"name":"东慧","id_card_no":"34070119681103853X"}</t>
         </is>
       </c>
     </row>
@@ -5001,25 +5588,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
         <v>64</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>per_com_industrycode</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司060';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5027,47 +5617,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司060'</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.industry_code[0]='5165'</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
         <is>
           <t>per_com_industrycode=5165</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{"name":"戴晨","id_card_no":"620300194211150659"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>{"name":"商阳","id_card_no":"510184196910126981"}</t>
         </is>
       </c>
     </row>
@@ -5076,25 +5674,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
         <v>65</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>per_com_saicChanRegister_5y</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司061';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5102,15 +5703,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司061';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-03-05';
@@ -5119,28 +5720,34 @@
 info_com_bus_alter.alt_item[1]='注册资本变更'</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
         <is>
           <t>per_com_saicChanRegister_5y=1</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{"name":"邓艳","id_card_no":"341102194110180715"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>{"name":"狄红霞","id_card_no":"654225196104151939"}</t>
         </is>
       </c>
     </row>
@@ -5149,25 +5756,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>66</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>per_com_saicChanRegister_5y</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司062';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5175,43 +5785,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司062';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
         <is>
           <t>per_com_saicChanRegister_5y=0</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{"name":"上婷婷","id_card_no":"451202195310173523"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>{"name":"昌丽","id_card_no":"210204193111052313"}</t>
         </is>
       </c>
     </row>
@@ -5220,25 +5836,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
         <v>67</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>per_com_saicChanRegister_5y</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司063';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5246,15 +5865,15 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司063';
 info_com_bus_basic.create_time='2019-07-05'</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>info_com_bus_alter.basic_id;
 info_com_bus_alter.alt_date[0]='2018-03-05';
@@ -5265,28 +5884,34 @@
 info_com_bus_alter.alt_item[2]='注册资本变更'</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
         <is>
           <t>per_com_saicChanRegister_5y=2</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{"name":"乜志强","id_card_no":"610828194508275286"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>{"name":"索静","id_card_no":"43102619760502474X"}</t>
         </is>
       </c>
     </row>
@@ -5295,25 +5920,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
         <v>68</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>per_com_province</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司064';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5321,41 +5949,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司064'</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.province[0]='上海'</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
         <is>
           <t>per_com_province=上海</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{"name":"喻林","id_card_no":"330900198006295113"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>{"name":"诸凤英","id_card_no":"522728194502274519"}</t>
         </is>
       </c>
     </row>
@@ -5364,25 +6000,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
         <v>69</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>per_com_province</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司065';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5390,47 +6029,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司065'</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.province[0]='湖北'</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
         <is>
           <t>per_com_province=湖北</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{"name":"齐建","id_card_no":"441900196205218978"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>{"name":"乐秀芳","id_card_no":"620825199510270834"}</t>
         </is>
       </c>
     </row>
@@ -5439,25 +6086,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
         <v>70</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>per_com_city</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司066';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5465,41 +6115,49 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）';</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司066'</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.city[0]='上海市'</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
         <is>
           <t>per_com_city=上海市</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{"name":"闻丽丽","id_card_no":"140881198505247906"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>{"name":"万楠","id_card_no":"511111197507130750"}</t>
         </is>
       </c>
     </row>
@@ -5508,25 +6166,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
         <v>71</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>f0003</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>f0003</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>per_com_city</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>info_per_bus_basic.id</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>info_per_bus_basic.id</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>info_per_bus_shareholder.basic_id;
 info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司067';
 info_per_bus_shareholder.funded_ratio[0]='0.3';
@@ -5534,47 +6195,55 @@
 info_per_bus_shareholder.ent_status[0]='在营（开业）'</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t xml:space="preserve">info_per_bus_legal.basic_id;
 info_per_bus_legal.reg_cap[0]='123'
 </t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>info_com_bus_basic.id;
 info_com_bus_basic.ent_name='上海蓝胖子有限公司067'</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>info_com_bus_face.basic_id;
 info_com_bus_face.city[0]='合肥市'</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
         <is>
           <t>per_com_city=合肥市</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>name;
-id_card_no</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>ent_name</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+          <t>name;
+id_card_no</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>ent_name</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>合肥市</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{"name":"司鹏","id_card_no":"340404198601058120"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>{"name":"滕飞","id_card_no":"320921194601176751"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"柳丽","id_card_no":"46010119450809610X"}</t>
+          <t>{"name":"奚娜","id_card_no":"141124199907235772"}</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"家琴","id_card_no":"211404197806232054"}</t>
+          <t>{"name":"驷波","id_card_no":"22240019380322164X"}</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"尹娟","id_card_no":"421101198904293801"}</t>
+          <t>{"name":"魏莉","id_card_no":"532327197202246644"}</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"阮丽华","id_card_no":"130929199604298293"}</t>
+          <t>{"name":"蔺帆","id_card_no":"542200194509145840"}</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"龚佳","id_card_no":"450324194904137333"}</t>
+          <t>{"name":"国海燕","id_card_no":"35068119700604426X"}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"干桂芝","id_card_no":"41010019991008477X"}</t>
+          <t>{"name":"年芳","id_card_no":"321282194203209891"}</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"楚想","id_card_no":"330103197804276508"}</t>
+          <t>{"name":"于凯","id_card_no":"22030019411213435X"}</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"殷杰","id_card_no":"620301195601101650"}</t>
+          <t>{"name":"壤秀华","id_card_no":"460100194708293785"}</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"公淑英","id_card_no":"130628199610075157"}</t>
+          <t>{"name":"亓莹","id_card_no":"451381195701211129"}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"赵志强","id_card_no":"63022119830531629X"}</t>
+          <t>{"name":"倪秀芳","id_card_no":"654023194303274795"}</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"苍岩","id_card_no":"140400195201199171"}</t>
+          <t>{"name":"涂文","id_card_no":"530422193006032490"}</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"长亮","id_card_no":"511304194702069557"}</t>
+          <t>{"name":"包文","id_card_no":"150423196509206391"}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"闻龙","id_card_no":"622925198802189256"}</t>
+          <t>{"name":"太华","id_card_no":"411103193709190231"}</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"籍雪","id_card_no":"652301195503307847"}</t>
+          <t>{"name":"夔玉梅","id_card_no":"120106194812281303"}</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"支红","id_card_no":"120113197708110675"}</t>
+          <t>{"name":"容畅","id_card_no":"140802198010221485"}</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"桓成","id_card_no":"360722199908055802"}</t>
+          <t>{"name":"汲桂兰","id_card_no":"210911196811054964"}</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"柏莉","id_card_no":"431202194105077235"}</t>
+          <t>{"name":"元畅","id_card_no":"421001195609260792"}</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"丘东","id_card_no":"340207196806210869"}</t>
+          <t>{"name":"储红梅","id_card_no":"371102194711129144"}</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>{"name":"薛娟","id_card_no":"522600195304015754"}</t>
+          <t>{"name":"孙宁","id_card_no":"520123199210216751"}</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>{"name":"甘琳","id_card_no":"341023197407239108"}</t>
+          <t>{"name":"顾莉","id_card_no":"450400193711180685"}</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>{"name":"廉旭","id_card_no":"420202196903016193"}</t>
+          <t>{"name":"贾玉英","id_card_no":"513229195411159681"}</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>{"name":"司晶","id_card_no":"340826196806069828"}</t>
+          <t>{"name":"廉玲","id_card_no":"130434196311240063"}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>{"name":"贲颖","id_card_no":"230523196903161027"}</t>
+          <t>{"name":"盖玉华","id_card_no":"110111194406224943"}</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>{"name":"樊娟","id_card_no":"520628193603281011"}</t>
+          <t>{"name":"阳金凤","id_card_no":"150782195303269698"}</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>{"name":"弘坤","id_card_no":"650203193607287808"}</t>
+          <t>{"name":"桓小红","id_card_no":"65010419490621097X"}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{"name":"钟畅","id_card_no":"350300199007252305"}</t>
+          <t>{"name":"赏阳","id_card_no":"42058219710308529X"}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>{"name":"左淑华","id_card_no":"361030197601134139"}</t>
+          <t>{"name":"贺杨","id_card_no":"350303195102140302"}</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>{"name":"王燕","id_card_no":"440523198908200935"}</t>
+          <t>{"name":"弘兰英","id_card_no":"210202197508190306"}</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{"name":"羿凤兰","id_card_no":"430422194010147419"}</t>
+          <t>{"name":"浦丽","id_card_no":"469026196507028542"}</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>{"name":"印辉","id_card_no":"130732197510104660"}</t>
+          <t>{"name":"阳桂芝","id_card_no":"410725199903267420"}</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{"name":"公娜","id_card_no":"620300195502145731"}</t>
+          <t>{"name":"平娜","id_card_no":"610501193109109917"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{"name":"闾峰","id_card_no":"530426197611204469"}</t>
+          <t>{"name":"扈龙","id_card_no":"32080419560827703X"}</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>{"name":"糜欣","id_card_no":"150724193904279899"}</t>
+          <t>{"name":"饶敏","id_card_no":"430500196805109949"}</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>{"name":"鄢浩","id_card_no":"320404197307098078"}</t>
+          <t>{"name":"舌桂芝","id_card_no":"411523193402246402"}</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>{"name":"萧平","id_card_no":"331024197303194376"}</t>
+          <t>{"name":"翟雷","id_card_no":"620724194511265813"}</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>{"name":"迟桂芳","id_card_no":"440607195006172201"}</t>
+          <t>{"name":"钦红霞","id_card_no":"441521193106246881"}</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>{"name":"璩帅","id_card_no":"210400199709032061"}</t>
+          <t>{"name":"耿阳","id_card_no":"632823195909034449"}</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>{"name":"璩磊","id_card_no":"370701199804132199"}</t>
+          <t>{"name":"酆金凤","id_card_no":"450305193302064436"}</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>{"name":"陆桂香","id_card_no":"330185196610029963"}</t>
+          <t>{"name":"涂芳","id_card_no":"140701195012190891"}</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>{"name":"巴倩","id_card_no":"410526197907066497"}</t>
+          <t>{"name":"匡勇","id_card_no":"51140219441209022X"}</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>{"name":"东勇","id_card_no":"522634199612036495"}</t>
+          <t>{"name":"尉丽娟","id_card_no":"222404192909097254"}</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>{"name":"杭瑜","id_card_no":"52012119360516575X"}</t>
+          <t>{"name":"申帅","id_card_no":"340311198605071873"}</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{"name":"吕俊","id_card_no":"330300194705086934"}</t>
+          <t>{"name":"酆想","id_card_no":"450327193904105360"}</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>{"name":"融淑珍","id_card_no":"431103199710106448"}</t>
+          <t>{"name":"邬荣","id_card_no":"511801194712143050"}</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>{"name":"和建","id_card_no":"36032319600113663X"}</t>
+          <t>{"name":"扶桂花","id_card_no":"370830198209179243"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>{"name":"尉桂英","id_card_no":"210403197001317176"}</t>
+          <t>{"name":"束玉华","id_card_no":"610429199604298186"}</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>{"name":"郁龙","id_card_no":"430822198605238416"}</t>
+          <t>{"name":"方阳","id_card_no":"411621198011063559"}</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>{"name":"连成","id_card_no":"433125196504168724"}</t>
+          <t>{"name":"井华","id_card_no":"230606199502238858"}</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{"name":"利磊","id_card_no":"130634195207222195"}</t>
+          <t>{"name":"广楠","id_card_no":"652701198508129571"}</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>{"name":"暴勇","id_card_no":"150621197412253792"}</t>
+          <t>{"name":"束坤","id_card_no":"340700195712053282"}</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>{"name":"印雷","id_card_no":"370405199202221484"}</t>
+          <t>{"name":"糜敏","id_card_no":"542128193908067882"}</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>{"name":"通小红","id_card_no":"33010519590311054X"}</t>
+          <t>{"name":"韩桂芳","id_card_no":"54260019560816914X"}</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>{"name":"仉玉珍","id_card_no":"370785198002047016"}</t>
+          <t>{"name":"湛萍","id_card_no":"230722198702072267"}</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>{"name":"封桂荣","id_card_no":"360313196205122595"}</t>
+          <t>{"name":"辕秀兰","id_card_no":"50010119610705236X"}</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>{"name":"经健","id_card_no":"331123197806067095"}</t>
+          <t>{"name":"平佳","id_card_no":"445201193707035950"}</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>{"name":"束建军","id_card_no":"511123193808288997"}</t>
+          <t>{"name":"蔡丹","id_card_no":"62120219770620629X"}</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>{"name":"房玉华","id_card_no":"340201195901062689"}</t>
+          <t>{"name":"甫波","id_card_no":"330402196807030517"}</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>{"name":"官桂珍","id_card_no":"230604199103170398"}</t>
+          <t>{"name":"计玉梅","id_card_no":"45010219911203302X"}</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>{"name":"宫桂芳","id_card_no":"652929199211082444"}</t>
+          <t>{"name":"富玉英","id_card_no":"410202195902125121"}</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>{"name":"糜荣","id_card_no":"230902195603267247"}</t>
+          <t>{"name":"墨桂芳","id_card_no":"511526199004236137"}</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>{"name":"连红梅","id_card_no":"522623194404044237"}</t>
+          <t>{"name":"刘雷","id_card_no":"540221199412056414"}</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>{"name":"何峰","id_card_no":"350426194405115644"}</t>
+          <t>{"name":"空帅","id_card_no":"360323193910173522"}</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>{"name":"东慧","id_card_no":"34070119681103853X"}</t>
+          <t>{"name":"游秀云","id_card_no":"211382198601124437"}</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>{"name":"商阳","id_card_no":"510184196910126981"}</t>
+          <t>{"name":"喻瑜","id_card_no":"430000199410178540"}</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>{"name":"狄红霞","id_card_no":"654225196104151939"}</t>
+          <t>{"name":"郝佳","id_card_no":"14062219520705196X"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>{"name":"昌丽","id_card_no":"210204193111052313"}</t>
+          <t>{"name":"宰静","id_card_no":"210811197006189945"}</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>{"name":"索静","id_card_no":"43102619760502474X"}</t>
+          <t>{"name":"狄桂香","id_card_no":"411524198608103545"}</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>{"name":"诸凤英","id_card_no":"522728194502274519"}</t>
+          <t>{"name":"海桂花","id_card_no":"620623193501110184"}</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>{"name":"乐秀芳","id_card_no":"620825199510270834"}</t>
+          <t>{"name":"宋静","id_card_no":"430722199012034636"}</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>{"name":"万楠","id_card_no":"511111197507130750"}</t>
+          <t>{"name":"广海燕","id_card_no":"152922199703215669"}</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>{"name":"滕飞","id_card_no":"320921194601176751"}</t>
+          <t>{"name":"郝俊","id_card_no":"141128199312319120"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-f003_result.xlsx
+++ b/tests/data/output/一级测试用例-f003_result.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"name":"奚娜","id_card_no":"141124199907235772"}</t>
+          <t>{"name":"庞坤","id_card_no":"330522198005243211"}</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{"name":"驷波","id_card_no":"22240019380322164X"}</t>
+          <t>{"name":"景成","id_card_no":"420700196108192141"}</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{"name":"魏莉","id_card_no":"532327197202246644"}</t>
+          <t>{"name":"长桂英","id_card_no":"130901193209252830"}</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{"name":"蔺帆","id_card_no":"542200194509145840"}</t>
+          <t>{"name":"羊欢","id_card_no":"431000198802223220"}</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{"name":"国海燕","id_card_no":"35068119700604426X"}</t>
+          <t>{"name":"越秀英","id_card_no":"371522193203248043"}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{"name":"年芳","id_card_no":"321282194203209891"}</t>
+          <t>{"name":"贺波","id_card_no":"370911200007106384"}</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{"name":"于凯","id_card_no":"22030019411213435X"}</t>
+          <t>{"name":"谷婷","id_card_no":"542127198604038122"}</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{"name":"壤秀华","id_card_no":"460100194708293785"}</t>
+          <t>{"name":"哈桂芝","id_card_no":"440883197910111980"}</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{"name":"亓莹","id_card_no":"451381195701211129"}</t>
+          <t>{"name":"宣志强","id_card_no":"520328197601044612"}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{"name":"倪秀芳","id_card_no":"654023194303274795"}</t>
+          <t>{"name":"鲍华","id_card_no":"530425195006017096"}</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{"name":"涂文","id_card_no":"530422193006032490"}</t>
+          <t>{"name":"水丹","id_card_no":"653022193909061688"}</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{"name":"包文","id_card_no":"150423196509206391"}</t>
+          <t>{"name":"桓成","id_card_no":"610112198909017738"}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{"name":"太华","id_card_no":"411103193709190231"}</t>
+          <t>{"name":"生龙","id_card_no":"141101199401096977"}</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{"name":"夔玉梅","id_card_no":"120106194812281303"}</t>
+          <t>{"name":"江倩","id_card_no":"350925199502202583"}</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{"name":"容畅","id_card_no":"140802198010221485"}</t>
+          <t>{"name":"阮秀珍","id_card_no":"441601196303060772"}</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{"name":"汲桂兰","id_card_no":"210911196811054964"}</t>
+          <t>{"name":"却玉英","id_card_no":"330101197704114525"}</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{"name":"元畅","id_card_no":"421001195609260792"}</t>
+          <t>{"name":"奚畅","id_card_no":"210502199810308112"}</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{"name":"储红梅","id_card_no":"371102194711129144"}</t>
+          <t>{"name":"詹飞","id_card_no":"621001198201242364"}</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>{"name":"孙宁","id_card_no":"520123199210216751"}</t>
+          <t>{"name":"井志强","id_card_no":"520424198908308699"}</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>{"name":"顾莉","id_card_no":"450400193711180685"}</t>
+          <t>{"name":"司桂花","id_card_no":"450328194607103933"}</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>{"name":"贾玉英","id_card_no":"513229195411159681"}</t>
+          <t>{"name":"盛明","id_card_no":"211200194808278312"}</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>{"name":"廉玲","id_card_no":"130434196311240063"}</t>
+          <t>{"name":"于秀珍","id_card_no":"522728195812200472"}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>{"name":"盖玉华","id_card_no":"110111194406224943"}</t>
+          <t>{"name":"能超","id_card_no":"410501193405227531"}</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>{"name":"阳金凤","id_card_no":"150782195303269698"}</t>
+          <t>{"name":"霍旭","id_card_no":"130723196810205454"}</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>{"name":"桓小红","id_card_no":"65010419490621097X"}</t>
+          <t>{"name":"左建华","id_card_no":"632724193902289467"}</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{"name":"赏阳","id_card_no":"42058219710308529X"}</t>
+          <t>{"name":"暴峰","id_card_no":"650202200001295754"}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>{"name":"贺杨","id_card_no":"350303195102140302"}</t>
+          <t>{"name":"潘英","id_card_no":"37018119321028252X"}</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>{"name":"弘兰英","id_card_no":"210202197508190306"}</t>
+          <t>{"name":"夔桂英","id_card_no":"140303195412129329"}</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{"name":"浦丽","id_card_no":"469026196507028542"}</t>
+          <t>{"name":"祝超","id_card_no":"330401193309291001"}</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>{"name":"阳桂芝","id_card_no":"410725199903267420"}</t>
+          <t>{"name":"梁飞","id_card_no":"650102196402244240"}</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{"name":"平娜","id_card_no":"610501193109109917"}</t>
+          <t>{"name":"嵇欢","id_card_no":"371422199512216354"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{"name":"扈龙","id_card_no":"32080419560827703X"}</t>
+          <t>{"name":"桂冬梅","id_card_no":"653129194111136358"}</t>
         </is>
       </c>
     </row>
@@ -3104,16 +3104,16 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>{"name":"饶敏","id_card_no":"430500196805109949"}</t>
+          <t>{"name":"宇柳","id_card_no":"140106196109034696"}</t>
         </is>
       </c>
     </row>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>{"name":"舌桂芝","id_card_no":"411523193402246402"}</t>
+          <t>{"name":"勾波","id_card_no":"430981196411036900"}</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>{"name":"翟雷","id_card_no":"620724194511265813"}</t>
+          <t>{"name":"祁桂荣","id_card_no":"542421199001266911"}</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>{"name":"钦红霞","id_card_no":"441521193106246881"}</t>
+          <t>{"name":"别琴","id_card_no":"620826194907075571"}</t>
         </is>
       </c>
     </row>
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>{"name":"耿阳","id_card_no":"632823195909034449"}</t>
+          <t>{"name":"芮桂芳","id_card_no":"530101196504077662"}</t>
         </is>
       </c>
     </row>
@@ -3524,16 +3524,16 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>{"name":"酆金凤","id_card_no":"450305193302064436"}</t>
+          <t>{"name":"魏斌","id_card_no":"371500195103313662"}</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>{"name":"涂芳","id_card_no":"140701195012190891"}</t>
+          <t>{"name":"水雷","id_card_no":"445202194908306375"}</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>{"name":"匡勇","id_card_no":"51140219441209022X"}</t>
+          <t>{"name":"衡勇","id_card_no":"450481193510250825"}</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>{"name":"尉丽娟","id_card_no":"222404192909097254"}</t>
+          <t>{"name":"哈荣","id_card_no":"410822195601294069"}</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>{"name":"申帅","id_card_no":"340311198605071873"}</t>
+          <t>{"name":"龙想","id_card_no":"52262519870329507X"}</t>
         </is>
       </c>
     </row>
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{"name":"酆想","id_card_no":"450327193904105360"}</t>
+          <t>{"name":"宿丽","id_card_no":"131121196601075003"}</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>{"name":"邬荣","id_card_no":"511801194712143050"}</t>
+          <t>{"name":"冀静","id_card_no":"520621198908098021"}</t>
         </is>
       </c>
     </row>
@@ -4089,16 +4089,16 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>{"name":"扶桂花","id_card_no":"370830198209179243"}</t>
+          <t>{"name":"师秀芳","id_card_no":"330402195710057524"}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>{"name":"束玉华","id_card_no":"610429199604298186"}</t>
+          <t>{"name":"田鹏","id_card_no":"510101198505228325"}</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>{"name":"方阳","id_card_no":"411621198011063559"}</t>
+          <t>{"name":"延兰英","id_card_no":"441224196910101313"}</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>{"name":"井华","id_card_no":"230606199502238858"}</t>
+          <t>{"name":"叔梅","id_card_no":"632223199012052883"}</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{"name":"广楠","id_card_no":"652701198508129571"}</t>
+          <t>{"name":"尉晶","id_card_no":"513423198803264866"}</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>{"name":"束坤","id_card_no":"340700195712053282"}</t>
+          <t>{"name":"西冬梅","id_card_no":"450600197207121685"}</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>{"name":"糜敏","id_card_no":"542128193908067882"}</t>
+          <t>{"name":"阎桂兰","id_card_no":"140781199211138244"}</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>{"name":"韩桂芳","id_card_no":"54260019560816914X"}</t>
+          <t>{"name":"濮兵","id_card_no":"620422194810264678"}</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>{"name":"湛萍","id_card_no":"230722198702072267"}</t>
+          <t>{"name":"计婷婷","id_card_no":"445303197612278374"}</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>{"name":"辕秀兰","id_card_no":"50010119610705236X"}</t>
+          <t>{"name":"晋凯","id_card_no":"533123195811159349"}</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>{"name":"平佳","id_card_no":"445201193707035950"}</t>
+          <t>{"name":"丁淑华","id_card_no":"420801198410041265"}</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>{"name":"蔡丹","id_card_no":"62120219770620629X"}</t>
+          <t>{"name":"程琴","id_card_no":"350121196306143990"}</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>{"name":"甫波","id_card_no":"330402196807030517"}</t>
+          <t>{"name":"连军","id_card_no":"360100195705246124"}</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>{"name":"计玉梅","id_card_no":"45010219911203302X"}</t>
+          <t>{"name":"俞帆","id_card_no":"532503194709095925"}</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>{"name":"富玉英","id_card_no":"410202195902125121"}</t>
+          <t>{"name":"訾磊","id_card_no":"350521194802276963"}</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>{"name":"墨桂芳","id_card_no":"511526199004236137"}</t>
+          <t>{"name":"芮婷","id_card_no":"621200200012115598"}</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>{"name":"刘雷","id_card_no":"540221199412056414"}</t>
+          <t>{"name":"鲜平","id_card_no":"331127196203306158"}</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>{"name":"空帅","id_card_no":"360323193910173522"}</t>
+          <t>{"name":"郏阳","id_card_no":"331181198602131735"}</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>{"name":"游秀云","id_card_no":"211382198601124437"}</t>
+          <t>{"name":"仇玉华","id_card_no":"350784199410139889"}</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>{"name":"喻瑜","id_card_no":"430000199410178540"}</t>
+          <t>{"name":"谈波","id_card_no":"230801193805139461"}</t>
         </is>
       </c>
     </row>
@@ -5738,16 +5738,16 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>{"name":"郝佳","id_card_no":"14062219520705196X"}</t>
+          <t>{"name":"慕桂珍","id_card_no":"532625194105300514"}</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>{"name":"宰静","id_card_no":"210811197006189945"}</t>
+          <t>{"name":"贺静","id_card_no":"230711195412040037"}</t>
         </is>
       </c>
     </row>
@@ -5902,16 +5902,16 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>{"name":"狄桂香","id_card_no":"411524198608103545"}</t>
+          <t>{"name":"史秀荣","id_card_no":"371602193610140523"}</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>{"name":"海桂花","id_card_no":"620623193501110184"}</t>
+          <t>{"name":"汪秀兰","id_card_no":"350926196201221150"}</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>{"name":"宋静","id_card_no":"430722199012034636"}</t>
+          <t>{"name":"聂杰","id_card_no":"360601199902191363"}</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>{"name":"广海燕","id_card_no":"152922199703215669"}</t>
+          <t>{"name":"西丽华","id_card_no":"500223195812035281"}</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>{"name":"郝俊","id_card_no":"141128199312319120"}</t>
+          <t>{"name":"元冬梅","id_card_no":"330521199205180276"}</t>
         </is>
       </c>
     </row>
